--- a/deuChatbot/research_result/version_1(2500_500).xlsx
+++ b/deuChatbot/research_result/version_1(2500_500).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:F301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13669,6 +13669,7165 @@
         </is>
       </c>
     </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 학생부 교과 전형에서 출결 점수가 반영된다고 잘못된 정보를 제공하고 있습니다. 원문에서는 출결 점수가 반영되지 않는다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 내용을 포함하고 있어 일관성이 없습니다. 원문과의 내용이 서로 모순됩니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성이 낮습니다. 원문에서의 핵심 내용과는 거리가 있습니다.
+4. Fluency Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로 어느 정도 이해할 수 있지만, 아랍어로 시작하는 부분이 있어 읽기 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 논리적 연결이 부족하여 일관된 흐름이 없습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 반대되는 정보를 제공하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 의미적으로 완전히 어긋나 있으며, 문맥에 맞지 않는 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 일부 이해할 수 있는 부분이 있지만, 잘못된 정보와 문맥의 혼란으로 인해 전반적으로 이해하기 어렵습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 3,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>0.6404602942057319</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>동의대학교 학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>نعم, 동의대학교 학생부교과 전형에서는 출결 점수가 반영됩니다. 
+특히 나군 실기/실적(경기실적우수자전형)의 경우 출결 상황이 다음과 같이 반영됩니다:
+- 출결 점수: 12%
+따라서 학생부교과 전형에서 출결 기록은 지원자의 합격 여부에 영향을 미칠 수 있습니다. 
+출결 점수가 포함된 전체 반영 비율은 다음과 같습니다:
+- 학생부 교과성적: 18%
+- 출결 상황: 12%
+- 서류(경기실적): 70%
+따라서 좋은 출석 기록을 유지하는 것이 지원자의 경쟁력을 높이는 데 도움이 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원인 17명에 대한 정보가 일관되게 제공되고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>0.8229488922847084</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>17명을 모집합니다.
+이 정보는 다음과 같은 표에서 얻었습니다:
+[표 속성]
+``` 단과대학 / 계열 / 모집단위 / 모집인원 ```
+[표 내용]
+```
+인문사회과학대학 / 인문사회 / 국어국문학과 - 교직 / 17 /
+```
+따라서, 인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로는 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명된 내용은 전반적으로 정확하지만, "시각디자인"에 대한 정보가 중복되어 있으며, "공예디자인"에 대한 구체적인 내용이 제공되지 않았습니다. 따라서 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 3
+   - 응답은 원본 텍스트의 일부 정보를 일관되게 반영하고 있지만, "시각디자인"에 대한 중복된 설명과 "공예디자인"에 대한 정보 부족으로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 실기시험에 대한 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기 쉽지만 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 "공예디자인"에 대한 정보가 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 제공된 정보는 대체로 정확하지만, "공예디자인"에 대한 구체적인 내용이 누락되어 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 응답은 높은 품질을 유지하고 있지만, 일부 정보의 누락과 중복으로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 중복된 정보가 있어 약간의 비효율성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 명확하고 이해하기 쉬우나, 일부 중복된 내용으로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>0.7467064720822473</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기고사는 시각디자인, 산업디자인, 공예디자인 중에서 선택하여 응시하게 됩니다. 각 분야별로 다음과 같은 준비물과 주제, 화지 크기, 시간이 지정되어 있습니다:
+1. **기초디자인 / 사고의 전환**
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+   - **실기주제**: 주제A와 주제B를 각각 1개씩 선택하여 연결된 주제로 당일 추첨
+     - 예시: 잠자리와 저울 (주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지 / 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음)
+   - **화지크기**: 켄트지 3절
+   - **시간**: 5시간
+2. **시각디자인**
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+   - **실기주제**: 주제A와 주제B를 각각 1개씩 선택하여 연결된 주제로 당일 추첨
+     - 예시: 콜라병과 계절 (주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼 / 주제B: 바이러스, 자유, 여행, 계절, 꿈)
+   - **화지크기**: 켄트지 2절
+   - **시간**: 5시간
+3. **공예디자인**
+   - (상세 내용은 제공되지 않았습니다)
+실기고사는 각 분야별로 주제를 당일 추첨하여 준비해야 하며, 화지 크기는 켄트지가 사용됩니다. 시간은 모두 5시간으로 동일합니다.
+주의사항:
+- 제공된 사물과 이미지는 표현하지 않아야 합니다.
+- 제공된 사물은 모두 1회 이상 표현해야 하며 색상 변경은 금지입니다.
+- 준비물은 개인이 가져가야 합니다.</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 디자인조형학과의 실기 종목을 "시각디자인, 산업디자인, 공예디자인"으로 언급하고 있으나, 원본 텍스트에서는 "기초디자인"과 "사고의 전환"이라는 두 가지 실기 종목이 명시되어 있습니다. 또한, 화지 크기와 시간에 대한 정보가 일부 누락되어 있습니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있으며, 실기 종목에 대한 설명이 다릅니다. 원본 텍스트의 내용과 일관성이 부족합니다.
+3. Relevance Score (1-5): 4  
+   - 설명: 생성된 응답은 디자인조형학과의 실기 종목과 관련된 정보를 제공하고 있으나, 원본 텍스트의 구체적인 내용과는 다소 차이가 있습니다. 그러나 주제와 관련된 예시를 포함하고 있어 관련성은 높습니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 전반적으로 유창하게 작성되었습니다.
+5. Coherence Score (1-5): 4  
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 다르게 정보를 제공하고 있으며, 특히 실기 종목에 대한 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3  
+   - 설명: 생성된 응답은 일부 측면에서 유용하지만, 사실성과 일관성에서 큰 문제를 가지고 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 의미와는 다소 차이가 있어 의미적으로 완벽하게 적절하지는 않습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>0.78900947940144</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기 종목은 시각디자인, 산업디자인, 공예디자인 중 택1입니다.
+- **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+- **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로는 "잠자리와 저울" 또는 "콜라병과 계절" 등이 있습니다.
+- **화지크기**: 켄트지 3절입니다.
+- **시간**: 5시간 동안 진행됩니다.
+각 종목은 주제를 바탕으로 개인의 창의성을 발휘하여 작품을 제작해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 대회 목록이 완전하고 정확합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 질문에 대한 직접적인 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>0.9571471716425104</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에는 다음과 같은 대회들이 있습니다:
+1. 배드민턴(남):
+   - 한국중·고연맹회장기전국학생선수권대회
+   - 대한배드민턴협회장기전국종별배드민턴선수권대회
+   - 전국학교대항배드민턴선수권대회
+   - 전국종별배드민턴선수권대회
+   - 전국연맹종별배드민턴선수권대회
+   - 전국체육대회
+   - 각종국제대회 (국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+   - 광역시·도 협회장기 종별대회
+2. 축구(남):
+   - 춘계한국고등학교축구연맹전
+   - 추계한국고등학교축구연맹전
+   - 대한축구협회장배전국고등학교축구대회
+   - 문화체육관광부장관기전국고등학교축구대회
+   - 문화체육관광부장관배전국고등학교축구대회
+   - 백운기전국고등학교축구대회
+   - 전국고등축구리그(권역별고교축구리그)
+   - 전국고등축구리그왕중왕전
+   - 무학기전국고등학교축구대회
+   - 청룡기전국고등학교축구대회
+   - 백록기전국고등학교축구대회
+   - 금강대기전국고등학교축구대회
+   - 대통령금배전국고등학교축구대회
+   - 금석배전국고등학생축구대회
+   - 부산MBC전국고등학생축구대회
+   - K리그 U18 챔피언십
+   - K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 내용을 대부분 정확하게 반영하고 있습니다. 그러나 "피망 (오이)"라는 표현은 원본 텍스트에 없는 추가 정보로, 약간의 부정확성을 나타냅니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 정보를 제공하고 있습니다. 주제와 시험 방식에 대한 설명이 일치하지만, "피망 (오이)"라는 표현이 약간의 불일치를 초래합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련된 내용을 잘 다루고 있습니다. 실기시험의 주제와 관련된 모든 정보를 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, "피망 (오이)"와 같은 표현이 약간의 어색함을 줄 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제와 관련된 정보가 명확하게 연결되어 있습니다. 그러나 "피망 (오이)" 부분이 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대부분 정확하게 반영하고 있지만, "피망 (오이)"라는 추가 정보가 정확성을 약간 떨어뜨립니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 약간의 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, "피망 (오이)"라는 표현이 의미적으로 적절하지 않을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 표현이 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>0.935383333931232</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에서 사용될 수 있는 주제들은 다음과 같습니다:
+주제A:
+- 잠자리
+- 무궁화
+- 피망 (오이)
+- 고양이 
+- 양파
+- 달팽이
+- 오렌지
+주제B:  
+- 악보
+- 줄자
+- 스카치테이프
+- 자물쇠
+- 반코팅장갑
+- 저울
+- 얼음
+시험 당일에는 이 주제들 중 각각 1개씩을 추첨하여 연결된 주제를 준비해야 합니다. 예를 들어 잠자리와 저울을 연결한 주제 등을 만들게 됩니다.
+주의: 제공된 사물과 이미지 이외의 형상은 표현하지 않아야 하며, 제공된 사물의 색상도 변경해서는 안 됩니다.</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원인 28명을 정확히 언급하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, 약간의 문장 구조 개선이 필요할 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 방식으로 작성되었습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>0.6228072325702704</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+인문사회과학대학 / 인문사회 / 영어영문학과 - 교직 / 28 / 
+이 정보는 "다군 수능(일반학생전형) 모집단위 및 모집인원" 표에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원인 22명을 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보에 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보 전달이 효과적입니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>0.7858138580050881</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>22명입니다. 의료보건생활대학 간호학과의 나군 일반학생 전형 모집 인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 영어영역 등급에 따른 점수를 정확하게 나열하고 있으며, 추가적으로 "이 점수들은 등급에 따른 평균 점수이며, 실제 수험생의 경우 개인별로 약간의 차이가 있을 수 있습니다."라는 문구가 포함되어 있어 점수의 변동성을 언급하고 있습니다. 그러나 "평균 점수"라는 표현이 원문에 명시되어 있지 않으므로 완전한 정확성은 다소 떨어집니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 점수를 나열하고 있으며, 추가적인 설명도 원문과 관련이 있습니다. 그러나 "평균 점수"라는 표현이 원문에 없기 때문에 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 요청한 정보에 직접적으로 관련이 있으며, 수능 영어 등급에 따른 점수를 명확하게 제시하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 "以下是按照韩语编写的回答："라는 문구는 한국어로 작성된 응답에 불필요한 부분이므로 약간의 유창성에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 점수와 추가 설명이 자연스럽게 연결되어 있습니다. 그러나 처음 부분의 중국어 문구가 응답의 일관성을 약간 해칠 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에 있는 점수를 정확하게 나열하고 있으며, 추가적인 설명도 관련성이 있지만 "평균 점수"라는 표현이 원문에 없기 때문에 완전한 정확성은 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 모두 좋은 점수를 받았습니다. 그러나 일부 불필요한 문구가 포함되어 있어 약간의 감점이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 연결되어 있으며, 점수에 대한 추가 설명도 적절합니다. 그러나 "평균 점수"라는 표현이 원문에 없기 때문에 의미적으로 완전한 적합성은 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 처음 부분의 중국어 문구가 혼란을 줄 수 있어 약간의 감점이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>0.7820473517838107</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>以下是按照韩语编写的回答：
+ 수능 영어 등급에 따른 점수는 다음과 같습니다:
+1등급 : 139점
+2등급 : 131점 
+3등급 : 123점
+4등급 : 115점
+5등급 : 107점
+6등급 : 99점
+7등급 : 91점
+8등급 : 83점
+9등급 : 75점
+이 점수들은 등급에 따른 평균 점수이며, 실제 수험생의 경우 개인별로 약간의 차이가 있을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 예술고 학생이 나군 학생부교과 농어촌학생전형에 지원할 수 없다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다. 모든 내용이 원본과 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 질문에 대한 직접적인 답변을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다. 그러나 전반적으로 이해하기 쉬운 문장 구조를 가지고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 각 문장이 서로 잘 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보나 누락된 내용이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있는 구조를 가지고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>0.7102262998599185</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>依据提供的信息，艺术高中毕业生不能申请“나군 학생부교과(농어촌학생전형)”（即农村学生专项计划）。具体来说，在“지원자격”（资格要求）部分提到：
+"농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 왖국어고, 체육고, 예술고 출신자는 지원할 수 없습니다。"
+这句韩文的意思是：位于农村地区或偏远地区的特殊高中（如科学高中、国际高中、外语高中、体育高中和艺术高中）的毕业生不能申请此专项计划。
+因此，艺术高中的学生不符合该专项计划的资格要求。</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 4등급의 기록을 252~255cm로 잘못 제시하고 있으며, 배점도 175점으로 잘못 기재되어 있습니다. 또한 Z-런에 대한 정보는 원본 텍스트와 관련이 없습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충하는 정보를 제공하고 있습니다. 기록과 배점이 모두 다르며, Z-런에 대한 언급은 원본 텍스트와 일치하지 않습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, Z-런에 대한 정보는 불필요하며, 주제에서 벗어난 내용입니다.
+4. Fluency Score (1-5): 4
+   - 문법적으로는 비교적 잘 작성되었으나, 내용의 정확성과 관련성을 고려할 때 전체적인 흐름이 좋지 않습니다.
+5. Coherence Score (1-5): 3
+   - 응답의 구조는 어느 정도 일관성이 있지만, Z-런에 대한 언급이 포함되어 있어 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 제공된 정보는 원본 텍스트와 비교했을 때 매우 부정확합니다. 기록과 배점 모두 잘못 기재되어 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 모든 품질 차원에서 매우 낮은 점수를 받습니다. 사실성, 일관성, 정확성 모두 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 일부 내용은 원본 텍스트와 관련이 있지만, Z-런에 대한 언급은 맥락에 맞지 않습니다.
+9. Understandability Score (1-5): 3
+   - 문장은 이해할 수 있지만, 내용의 정확성과 관련성 부족으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>0.8521806316295558</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>4등급에서 레저스포츠학과 여자 제자리 멀리뛰기의 기록은 252~255cm이며, 배점은 175점입니다.
+Z-런의 경우, 4등급에서는 15.60~15.79cm의 기록을 가지고 있으며, 이 때의 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 출결 반영 비율이 12%라는 사실을 정확하게 반영하고 있으며, 추가적인 정보도 제공하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 출결 반영 비율에 대한 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련된 추가 정보를 제공합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 흐름이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>0.738053476813154</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경기지도학과의 출결 반영 비율은 12%입니다.
+이 정보는 "나군 실기/실적(경기실적우수자전형) 전형요소 반영비율" 표에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 물리치료학과의 모집 인원인 4명을 정확히 언급하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않고 일관된 내용을 제공합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 주제인 물리치료학과의 모집 인원에 직접적으로 관련된 내용을 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 명확합니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>0.837479098018668</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>4명을 모집합니다.
+이 정보는 "다군 수능(일반학생전형) 모집단위 및 모집인원" 표에서 확인할 수 있습니다. 해당 표의 내용 중 물리치료학과에 대한 정보가 다음과 같습니다:
+공과대학 / 공학 / 물리치료학과 / 4 /
+따라서 동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 날짜 정보를 정확하게 반영하고 있으며, 추가적인 관련 정보도 제공하고 있습니다. 모든 사실이 정확하게 전달되었습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가된 정보도 원본의 내용과 충돌하지 않습니다. 모든 정보가 일관되게 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 질문에 대한 직접적인 답변을 포함하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다. 각 문장이 잘 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>0.5614895817306808</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024년 1월 17일(수)에 실시됩니다.
+관련 정보는 다음과 같습니다:
+- **일정**: 2024. 01. 17.(수)
+- **대기실 및 입실시간 안내**: 2024. 01. 12.(금) 14:00 이후, 입학안내 홈페이지에서 조회 가능
+이 정보는 "전형일정" 표에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 "수능 최저 학력 기준은 없습니다."라는 원문과 상충하는 내용을 포함하고 있습니다. 응답은 수능 최저기준이 없다는 사실을 명확히 반영하지 않고, 일반적인 정보와 다른 표에 대한 언급을 통해 혼란을 초래하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 부족합니다. 원문은 수능 최저기준이 없다고 명시하고 있지만, 응답은 수능 최저기준이 있을 수 있다는 가능성을 제기하고 있습니다. 이는 원문과 상충하는 정보입니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수능 최저기준에 대한 질문에 대해 관련된 정보를 제공하고 있으나, 원문에서 명시된 "수능 최저 학력 기준은 없습니다."라는 핵심 정보를 간과하고 있습니다. 따라서 관련성은 높지만 완전하지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 연결이 명확하지 않아 일관된 흐름이 부족합니다. 수능 최저기준이 없다는 점을 강조하지 않으면서 다양한 정보를 나열하고 있어 논리적 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 상충하는 내용을 포함하고 있습니다. 수능 최저기준이 없다는 사실을 정확히 반영하지 못하고, 다른 정보로 혼란을 주고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 일치성이 부족하며, 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 따라서 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 의미적 일치가 부족하여 일부 내용이 부적절하게 느껴질 수 있습니다. 수능 최저기준이 없다는 점을 간과하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원문과의 불일치로 인해 혼란을 초래할 수 있습니다. 그러나 문장 자체는 명확하게 전달되고 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>0.4544656393869358</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 응용화학과의 정확한 수능 최저기준 정보가 제공된 표에서 확인할 수 없습니다. 하지만, 일반적으로 수능 최저기준은 해당 학과의 모집단위와 전형 유형에 따라 다를 수 있습니다.
+표 '다군 수능(일반학생전형) 모집단위 및 모집인원'을 보면 응용화학과는 공과대학의 모집단위로 분류되어 있습니다. 그러나 표에서 해당 학과의 수능 최저기준은 명시되어 있지 않습니다.
+표 '다군 수능(일반학생전형) 전형요소 반영비율'을 보면 다군 수능(일반학생전형)의 경우 전 모집단위에 대해 100% 수능 성적을 반영한다고 되어 있습니다. 그러나 이는 최저기준을 명시하지 않습니다.
+따라서, 정확한 수능 최저기준을 확인하려면 동의대학교 입학처 웹사이트나 해당 학과의 공지사항을 참조하거나 직접 문의하는 것이 가장 확실합니다. 
+추가적으로, 수능 최저기준은 매년 변경될 수 있으므로, 최신 정보를 얻기 위해서는 대학 입학 홈페이지를 확인하시거나 전화로 문의하시는 것이 좋습니다.
+https://ipsi.deu.ac.kr/main.do 에 접속하여 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 신설된 학과 목록에서 '부동산자산경역학부'와 '간호학과'를 포함하고 있으며, 이는 원본 텍스트에 명시된 학과와 일치하지 않습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있어 일관성이 부족합니다. 특히, 원본 텍스트에 없는 학과들이 추가되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 동의대학교의 신설 학과에 대한 정보를 제공하고 있으나, 원본 텍스트와는 다른 학과들이 포함되어 있어 일부 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 표현이 다소 복잡할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 학과를 나열하고 있지만, 원본 텍스트와의 연결이 부족하여 일관된 흐름이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트에 포함되지 않은 학과들을 언급하고 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 여러 차원에서 낮은 점수를 기록하고 있으며, 특히 사실성과 일관성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 주제와 관련이 있지만, 원본 텍스트의 의미와는 다소 다르게 해석될 수 있는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 정보가 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>0.6184553864727417</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과로 확인된 것은 다음과 같습니다:
+1. 미래융합대학 - 라이프융합학부 (신설)
+2. 미래융합대학 - 부동산자산경역학부 (신설)
+3. 상경대학 - 스마트항만물류학과 (신설)
+4. 상경대학 - 창업투자경영학과 (신설)
+5. 의료보건생활대학 - 간호학과 (교직) - 간호교육인증
+6. 인문사회과학대학 - 심리학과 (신설)
+이 정보는 제공된 데이터에서 추출한 것입니다. 추가로 신설된 학과가 있는지 확인하려면 대학의 공식 웹사이트를 방문하여 최신 정보를 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 전형요소 반영비율에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 전형요소 반영비율에 대한 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 방식으로 정보를 전달하고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>0.8659016224118896</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 서류: 70%
+- 면접: 30%
+이 정보는 [표 내용]에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교에서 수능 가산점을 적용하는 모집단위를 잘못 언급하고 있습니다. 원문에서는 의료·보건·생활대학, 공과대학, ICT융합공과대학에서 가산점을 적용한다고 명시되어 있지만, 생성된 응답에서는 한의예과만 언급하고 있습니다. 이로 인해 사실성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있습니다. 원문에서는 특정 모집단위에서 수학(미적분 또는 기하)을 응시한 경우에만 가산점을 부여한다고 했지만, 생성된 응답은 한의예과에만 국한되어 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수능 가산점에 대한 정보를 제공하고 있지만, 특정 학과에 대한 잘못된 정보가 포함되어 있어 관련성은 높지만 완전하지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 정보가 다소 분산되어 있어 논리적인 흐름이 부족합니다. 원문과의 연결이 약해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 다르게 특정 학과에 대한 잘못된 정보를 포함하고 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답이 원문과의 일치성이 부족하고, 사실성, 일관성, 정확성 모두에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문의 주제와 관련이 있지만, 잘못된 정보로 인해 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>0.7472387170303131</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 어떤 학과에서 수능 가산점을 적용하나요?</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서는 한의예과 수학(미적분/기하) 응시자에게 수학 취득 표준점수의 10%를 가산점으로 부여합니다.
+이 정보는 "가산점" 섹션에서 확인할 수 있습니다:
+[표 속성]
+``` 모집단위 / 수능 가산점 ```
+[표 내용]
+```
+의료·보건·생활, 공과, ICT융합공과대학 모집단위 / 수학(미적분 or 기하)응시자는 수학 취득 표준점수의 10%를 가산점으로 부여 /
+```
+따라서 수능 가산점을 적용받을 수 있는 학과는 한의예과 중 수학(미적분/기하) 응시자에 한해 해당됩니다.</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 성적이 100% 반영된다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 수능 성적 반영 비율에 대한 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련된 정보를 추가로 제공하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 연결되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 방식으로 정보를 전달하고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>0.754280758874633</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 수능 성적은 전 모집단위(레저스포츠학과, 태권도학과 제외)에 대해 100%로 반영됩니다.
+관련 표는 다음과 같습니다:
+``` 
+전형명 / 모집단위 / 전형요소 반영비율{ 수능 / 실기 }
+가군 수능 (일반학생전형) / 전 모집단위(레저스포츠학과, 태권도학과 제외) / { 100% /  - / } /
+```
+따라서 가군의 모든 모집단위에서 수능 성적은 최대 비중을 차지하며, 실기 절차는 해당 학과들에만 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 실기고사 날짜와 관련된 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 실기고사 일정에 대한 정보가 충돌 없이 제공됩니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 실기고사 일정에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>0.7262873158245032</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 다음과 같이 일정되어 있습니다:
+- 레저스포츠학과, 태권도학과의 실기고사는 **2024. 01. 16.(화)**에 시행됩니다.
+참조: 
+[표 제목 : 전형일정]
+```
+&lt;가&gt;군 실기고사 레저스포츠학과 태권도학과 / 2024. 01. 16.(화) /
+```</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 한의예과, 디자인조형학과, 체육학과, 경기지도학과가 제외된다는 원문 내용을 잘못 해석하고 있습니다. 레저스포츠학과와 태권도학과가 제외된다고 주장하지만, 이는 사실이 아닙니다. 따라서 사실성 점수는 1입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서는 특정 학과가 제외된다고 명시하고 있지만, 생성된 응답은 다른 학과가 제외된다고 주장하고 있어 일관성이 없습니다. 따라서 일관성 점수는 1입니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성이 낮습니다. 원문에서 제외된 학과에 대한 정확한 정보를 제공하지 않기 때문에 관련성 점수는 2입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성이 떨어지기 때문에 점수를 약간 낮추었습니다. 따라서 유창성 점수는 4입니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 나름의 흐름을 가지고 있지만, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. 따라서 일관성 점수는 3입니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 크게 다르며, 잘못된 사실을 포함하고 있습니다. 따라서 정확성 점수는 1입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받고 있습니다. 따라서 다차원 품질 점수는 1입니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 잘못된 정보로 인해 의미적으로 적절하지 않습니다. 따라서 의미 적합성 점수는 2입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 따라서 이해 가능성 점수는 4입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>0.5848936792196204</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서 실기/실적 위주 모집단위로 분류되는 레저스포츠학과, 태권도학과는 제외됩니다.
+이 점을 확인하기 위해 관련 정보를 요약하면:
+- [표 내용] 섹션에서 나군 수능(일반학생전형)의 모집단위가 다음과 같이 나열되어 있습니다:
+  - 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과는 실기/실적 위주 모집단위로 분류됩니다.
+- [표 내용] 섹션에서 나군 수능(일반학생전형)의 전형요소 반영비율이 다음과 같이 설명되어 있습니다:
+  - 디자인조형학과, 체육학과는 30% 실기 + 70% 수능을 반영합니다.
+  - 레저스포츠학과, 태권도학과는 70% 실기 + 30% 수능을 반영합니다.
+따라서, 레저스포츠학과와 태권도학과는 나군 수능(일반학생전형)에서 제외되는 모집단위입니다.</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 정반대의 내용을 담고 있습니다. 원본에서는 수능 최저기준이 적용되지 않는다고 명시하고 있지만, 생성된 응답에서는 수능 최저기준이 적용된다고 잘못 설명하고 있습니다. 따라서 사실성 점수는 1입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 완전히 모순되는 내용을 포함하고 있습니다. 원본의 주장을 반박하는 내용이 포함되어 있어 일관성이 전혀 없습니다. 따라서 일관성 점수는 1입니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있으며, 다군 전형에 대한 정보를 제공하고 있습니다. 원본 텍스트의 주제와 관련이 깊기 때문에 관련성 점수는 5입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 일부 표현이 다소 어색할 수 있으나 전반적으로 유창성 점수는 4입니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 정보가 나열되어 있지만, 원본 텍스트와의 관계가 명확하지 않아 논리적 흐름이 다소 부족합니다. 따라서 일관성 점수는 3입니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 반대되는 내용을 담고 있어 정확성 점수는 1입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성에서 매우 낮은 점수를 받았지만, 관련성과 유창성에서 어느 정도 점수를 받았습니다. 그러나 전반적으로 품질이 낮기 때문에 다차원 품질 점수는 2입니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 완전히 반대되는 내용을 담고 있어 의미적으로 부적절합니다. 따라서 의미 적합성 점수는 1입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원본과의 모순으로 인해 혼란을 줄 수 있습니다. 그럼에도 불구하고 명확한 표현이 많아 이해 가능성 점수는 4입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>0.7830985035409535</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 다군 전형에서는 수능 최저기준이 적용됩니다. 
+다군 전형의 모집단위별로 수능 성적이 100% 반영되며, 수능 성적 기준에 따라 합격자가 선정됩니다.
+관련 정보는 다음과 같습니다:
+- 다군 수능(일반학생전형) / 전 모집단위 / { 100% / } /
+따라서 지원자는 해당 모집단위의 수능 최저점수를 충족시켜야 하며, 최저기준 미달 시에는 합격이 불가능합니다.</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 학과의 분리 내용이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않고 일관된 내용을 제공합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>0.8763844451966981</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과가 학부에서 학과로 분리되었습니다:
+1. 보육·가정상담학과 -&gt; 아동학과
+2. 경제금융보험학과 -&gt; 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) -&gt; 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학과 -&gt; 부동산투자학, 부동산개발경영학
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) -&gt; 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) -&gt; 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) -&gt; 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) -&gt; 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) -&gt; 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간·시스템디자인공학, 제품디자인공학) -&gt; 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) -&gt; 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) -&gt; 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) -&gt; 전기공학과, 전자공학과
+이 외에도 몇몇 학과는 신설되었거나 모집을 중지하였습니다.</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원서접수 마감일에 대한 정확한 정보를 제공하고 있으며, 원본 텍스트와 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가 유의사항도 원본의 정보와 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련된 추가 정보를 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>0.7582852323106519</v>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 전형일정에 따르면, 원서접수 마감일은 **2024. 01. 06.(토) 18시**입니다.
+추가 유의사항:
+- 이 시간 정각에 원서접수 사이트 접속이 차단되므로, 사전에 미리 접속하여 지원 내용 입력 및 전형료 결제를 완료해야 합니다.
+- 마감 시한까지 원서접수를 완료하지 못한 경우 지원자 본인의 책임으로 간주됩니다.</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 전형 요소 변화에 대한 주요 내용을 잘 반영하고 있으나, 일부 세부사항이 누락되거나 잘못 표현된 부분이 있어 완전한 정확성을 보장하지는 않는다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트와 일부 일치하지만, 특정 전형의 이름이나 세부사항에서 일관성이 부족하다. 예를 들어, "성인학습자(정원내)전형"이라는 표현은 원본에 명시된 내용과 다르다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 전형 요소 변화에 대한 정보를 직접적으로 다루고 있다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 일부 문장 구조가 다소 복잡하게 느껴질 수 있다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 전형 요소 변화에 대한 설명이 명확하게 이어진다. 그러나 일부 세부사항에서 연결이 매끄럽지 않은 부분이 있다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 전형 요소 변화에 대한 정확한 정보를 제공하지만, 일부 세부사항이 누락되거나 잘못 표현된 부분이 있어 완전한 정확성을 보장하지는 않는다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행되었으나, 일부 세부사항에서의 부정확성과 일관성 부족으로 인해 완벽하지는 않다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 표현에서 다소 어색함이 느껴질 수 있다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 전달되지만, 일부 문장 구조가 복잡하여 약간의 혼란을 줄 수 있다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>0.7610954056751156</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 전형 요소 변화가 있는 전형들은 다음과 같습니다:
+1. 학생부종합(성인학습자전형):
+   - 지원자격 변경: 
+     * "특성화고 등을 졸업한 재직자"로 변경됨
+     * "고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자"로 변경됨
+2. 학생부종합(성인학습자(정원내)전형):
+   - 지원자격 변경:
+     * "고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자"로 변경됨
+3. 학생부종합(조기취업형계약학과전형):
+   - 전형요소 반영비율 변경:
+     * "서류(학생부)70%+면접30%"에서 
+     * "서류(학생부)60%+면접40%"로 변경됨
+이러한 변화는 2024학년도 동의대학교 입시 전형에 영향을 미칠 수 있으므로 지원자들은 신중하게 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 실기 비중이 70%라는 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가된 정보도 원본의 내용을 보완하는 형태로 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련된 추가 정보도 포함되어 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 연결되어 있으며, 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 기록합니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>0.8353040130325478</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기 비중은 70%입니다.
+이는 "가군 실기/실적(일반학생전형) / 레저스포츠학과, 태권도학과 / { 30% / 70% / }"라는 표에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 세부 전공의 명칭도 일치합니다. 추가된 중국어 문장은 원본의 내용과 관련이 없지만, 원본의 정보는 정확합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 정보를 제공하고 있습니다. 그러나 중국어 문장이 추가되어 있어 약간의 일관성 저하가 발생했습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 세부 전공에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬운 구조로 작성되어 있습니다. 문장 흐름이 자연스럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 논리적인 흐름을 가지고 있지만, 중국어 문장이 포함되어 있어 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 정보의 정확성이 높습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 우수하지만, 중국어 문장으로 인해 약간의 일관성과 응집력이 떨어질 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본의 의미와 맥락에 적합하지만, 추가된 중국어 문장이 맥락에 맞지 않아 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>0.78846860876906</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 '라이프융합학부'의 세부 전공은 다음과 같습니다:
+- 스타트업 창업 투자학
+- 뷰티 비즈니스학 
+- 라이프 생활 문화학
+这三个专业方向共同构成了生活融合学部的新设本科专业。</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 '태권도학과'를 포함하고 있으며, 이는 원본 텍스트에 명시된 '체육학과'와 다릅니다. 또한, '이 두 학과만 가군에서 실기고사가 요구됩니다.'라는 문장은 사실과 다릅니다. 원본 텍스트에 따르면, 실기고사에 참여해야 하는 학과는 '체육학과'와 '레저스포츠학과'입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, '태권도학과'라는 정보는 원본에 포함되어 있지 않습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사에 참여해야 하는 학과에 대한 정보를 제공하고 있지만, 잘못된 정보를 포함하고 있어 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 논리적으로 연결되어 있지만, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 모두 낮은 점수를 받았으며, 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 의미적으로 일부 적절한 부분이 있지만, 잘못된 정보로 인해 전체적인 의미 전달이 부정확합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 문장은 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>0.7366009073216522</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 다음과 같습니다:
+1. 레저스포츠학과 (제자리 멀리뛰기, Z-런)
+2. 태권도학과
+이 두 학과만 가군에서 실기고사가 요구됩니다. 다른 학과들은 일반적으로 수능 성적을 기준으로 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과를 정확하게 나열하고 있으며, 추가적인 정보(가군, 나군, 다군)도 포함되어 있습니다. 그러나 원본 텍스트에는 이러한 군별 정보가 포함되어 있지 않으므로, 약간의 추가 정보가 포함된 점에서 점수를 4로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 기반으로 하고 있지만, 군별 정보가 추가되어 있어 원본과의 일관성이 떨어질 수 있습니다. 따라서 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 실기/실적 위주 전형 지원 가능한 학과에 대한 정보를 직접적으로 다루고 있습니다. 따라서 관련성 점수는 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색한 표현이 있을 수 있어 점수를 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 학과에 대한 정보가 명확하게 전달됩니다. 그러나 군별 정보가 추가되면서 약간의 혼란을 줄 수 있어 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다. 그러나 원본에 없는 군별 정보가 포함되어 있어 점수를 4로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 일관성 문제로 인해 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 군별 정보가 추가되어 원본의 의미와 약간의 차이를 보일 수 있습니다. 따라서 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 그러나 군별 정보가 추가되어 약간의 혼란을 줄 수 있어 점수를 4로 평가합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>0.7658026218481291</v>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형을 지원할 수 있는 학과는 다음과 같습니다:
+1. 레저스포츠학과 (가군)
+2. 태권도학과 (가군)
+3. 디자인조형학과 (나군)
+4. 체육학과 (나군)
+5. 경기지도학과 (다군)
+이러한 학과들은 해당 전형을 지원할 수 있으며, 각 학과별로 모집 단위와 지원 자격 등이 다를 수 있으므로 공식 입시 안내서나 대학 홈페이지를 확인하시어 자세한 정보를 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 라이프융합학부가 제공하는 전공을 정확하게 나열하고 있으며, 추가적인 설명도 포함되어 있습니다. 그러나 "미래융합대학"이라는 표현은 원문에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 전공 목록을 제공하지만, "미래융합대학"이라는 새로운 정보가 추가되어 원문과의 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 전공 목록과 그에 대한 설명이 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 전공에 대한 설명이 자연스럽게 이어집니다. 그러나 "미래융합대학"이라는 새로운 정보가 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 전공 목록은 정확하지만, "미래융합대학"이라는 표현이 원문에 없기 때문에 완전한 정확성은 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 높은 품질을 유지하고 있으며, 사실성, 관련성, 유창성 등에서 좋은 점수를 받습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 맞지만, "미래융합대학"이라는 표현이 원문에 없기 때문에 약간의 의미적 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>0.7965412209716366</v>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 미래융합대학에서 신설된 라이프융합학부는 다음과 같은 전공을 제공합니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학
+3. 라이프생활문화학
+이러한 세 가지 전공은 라이프융합학부의 핵심 분야를 포괄하며, 미래 사회에서 개인과 사회가 직면할 수 있는 다양한 삶의 질 향상을 위한 교육을 제공합니다.</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 없다고 잘못된 정보를 제공하고 있습니다. 원문에서는 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다고 명시하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문은 지원 가능성을 언급하고 있지만, 생성된 응답은 지원 불가능하다고 주장하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 잘못된 정보를 바탕으로 하고 있어 다소 부적절합니다. 그러나 일반학생전형에 대한 정보는 여전히 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 내용의 정확성 문제로 인해 완전한 유창성을 평가하기는 어렵습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. 원문과의 불일치로 인해 응답의 일관성이 약해졌습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 사실과 다르게 특수목적고등학교 출신 학생의 지원 가능성을 잘못 설명하고 있습니다. 이는 원문과의 큰 차이를 나타냅니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 큰 문제를 보이고 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 잘못된 정보로 인해 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>0.7106178291032257</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 일반학생전형에서 특수목적고등학교(과학고, 국제고, 외국어고, 예술고, 체육고) 출신자는 지원할 수 없습니다.
+참조된 내용:
+- [표 제목 : 고교유형별 지원자격]
+  - 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.
+따라서, 특수목적고등학교 학생으로서 동의대학교 일반학생전형에 지원하는 것은 불가능합니다. 다른 전형을 찾아보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 원본 텍스트는 동의대 나군 전형에서 가장 많이 모집하는 학과가 중어중국학과와 신소재공학과라고 명시하고 있지만, 생성된 응답은 부동산자산경영학부를 가장 많이 모집하는 학과로 언급하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 상충하는 정보를 제공합니다. 원본 텍스트에서 언급된 학과와 모집 인원에 대한 정보가 생성된 응답에서 전혀 반영되지 않고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 나군 전형의 모집 인원에 대한 정보를 제공하지만, 질문의 핵심인 "가장 많이 모집하는 학과"에 대한 직접적인 답변을 제공하지 않고 있습니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성이 떨어지기 때문에 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 학과의 모집 인원에 대한 정보를 나열하고 있지만, 원본 텍스트의 주제와는 일치하지 않기 때문에 일관성이 떨어집니다. 그러나 내부적으로는 어느 정도의 논리적 흐름이 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다릅니다. 원본에서 언급된 학과와 모집 인원에 대한 정보가 잘못 전달되고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 일부 의미적으로 적절한 정보를 포함하고 있지만, 질문의 맥락과는 맞지 않기 때문에 점수가 낮습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 내용의 정확성과 관련성이 떨어지기 때문에 전체적인 평가에 영향을 미칩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>0.6603216520816018</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 파악하기 위해서는 각 학과별 정원 내 모집인원을 확인해야 합니다. 제공된 정보 중 나군 학생부종합(평생학습자전형) 및 (성인학습자(정원내·외)전형)의 모집인원이 가장 많습니다.
+다음은 나군에서 주요 학과별 정원 내 모집인원입니다:
+- 미래융합대학 인문사회 라이프융합학부 - 신설 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학): 11명
+- 미래융합대학 인문사회 부동산자산경영학부(부동산투자학, 부동산개발경영학): 7명 (성인학습자(정원내)전형), 17명 (성인학습자(정원외)전형)
+- 미래융합대학 인문사회 부동산자산경영학부(부동산투자학, 부동산개발경영학): 7명
+이 중에서 가장 많은 모집인원을 보이는 학과는 **미래융합대학 인문사회 부동산자산경영학부**입니다. 이 학과는 성인학습자(정원내)전형에서는 7명, 성인학습자(정원외)전형에서는 17명을 모집하며 총 24명을 모집합니다.
+따라서, 2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과는 **미래융합대학 인문사회 부동산자산경영학부**입니다.</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대 학생부교과 농어촌학생전형의 지원 자격에 대한 정보를 제공하고 있지만, 원문에서 명시된 "마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다."라는 중요한 사실을 누락하고 있습니다. 또한, 응답의 내용이 원문과 일치하지 않으며, 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있으며, 원문에서 언급된 특정 조건을 무시하고 있습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 지원 자격에 대한 정보를 제공하지만, 원문에서 요구하는 특정 조건을 충분히 반영하지 못하고 있습니다. 일부 관련 정보는 포함되어 있지만, 전체적으로는 원문과의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 중국어로 작성되어 있어 한국어 사용자에게는 이해하기 어려울 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원문과의 연결이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 전반적으로 원문과의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 요구하는 의미와 맥락에 부합하지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 원문과의 관련성이 부족하여 전체적인 이해가 어렵습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>0.4974900792544618</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>你不满足申请条件。根据提供的信息，东义大学的学生部教科农村学生类型要求：
+1. 必须是在农村（乡镇）地区中学和高中期间完成整个教育过程的中学生。
+2. 中学生及其父母在中学和高中学习期间必须都居住在农村地区（如果父母一方去世或离婚，则不在此限）。
+而特殊目的高中（如科学高中、国际高中、外语高中等）的学生不符合这个条件。因此，作为特殊目的高中的学生，你不能申请东义大学的学生部教科农村学生类型。
+如果你希望申请，请考虑其他类型的入学途径，例如城市地区学校或符合其他申请资格的项目。建议访问东义大学官方网站（https://ipsi.deu.ac.kr/main.do）获取更详细的信息和最新的招生要求。</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보를 제공하고 있으나, 원본 텍스트에서는 해당 정보가 포함되어 있지 않다고 명시하고 있습니다. 따라서 생성된 응답은 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 평균 성적에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 구체적인 성적 정보를 제시하고 있습니다. 이는 일관성이 결여된 것입니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 정보가 없음을 알리고 있지만, 생성된 응답은 구체적인 성적 정보를 제공하여 주제와 관련성이 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있으나, 원본 텍스트와의 관계에서 비일관성이 존재하여 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 원본 텍스트는 평균 성적에 대한 정보가 없다고 명시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다. 따라서 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 정보를 제공합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>0.6258734269290407</v>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자의 평균 성적은 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 317.87
+- 영어 등급의 평균: 3.77
+- 수능 4개 영역 등급의 평균: 4.49
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 434.70
+이 정보는 "다군 수능(일반학생전형) 전형요소 반영비율" 및 "수능(일반학생전형) 최종등록자" 표에서 추출한 것입니다.</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보를 제공하고 있으나, 원본 텍스트에서는 해당 정보가 포함되어 있지 않다고 명시하고 있습니다. 따라서 생성된 응답은 사실과 일치하지 않으며, 여러 가지 부정확한 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 평균 성적에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 구체적인 성적 정보를 제시하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 평균 성적에 대한 정보가 없음을 알리고 있으며, 생성된 응답은 그와 반대되는 내용을 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관계에서 비논리적인 점이 있어 완전한 일관성을 보이지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 원본 텍스트는 평균 성적에 대한 정보가 없다고 명시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다. 원본 텍스트와의 불일치로 인해 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 정보를 제공합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>0.5413292383913237</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 최초합격자의 평균 성적은 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: { 330.11 / 9.08 }
+- 영어 등급: { 3.30 / 0.82 }
+- 수능 4개 영역 등급: { 4.12 / 0.32 }
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: { 450.71 / 10.11 }
+따라서, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 **330.11**입니다.</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 주요 정보를 정확하게 포함하고 있지만, 등록 관련 세부사항이 추가되어 있어 원본 텍스트와 약간의 차이가 있습니다. 그러나 전반적으로 사실에 부합합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 바탕으로 하고 있지만, 등록 관련 세부사항이 추가되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트에는 등록에 대한 언급이 없으므로 이 부분에서 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 합격자 발표 일정에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 발표 일정이 명확하게 구분되어 있습니다. 그러나 등록 관련 정보가 추가되면서 약간의 흐름이 방해받을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 등록 관련 세부사항이 추가되어 있어 정확성에 약간의 차이가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받지만 일부 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 등록 관련 정보가 추가되어 있어 약간의 의미적 차이가 발생합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>0.85541301707799</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>2024학년도 합격자 발표 일정은 다음과 같습니다:
+1. 최초 합격자 발표 및 등록:
+   - 날짜: 2024. 02. 02.(금) 14:00
+   - 방법: 홈페이지에서 개별 조회
+2. 충원 합격자 1차 발표 및 등록:
+   - 날짜: 
+     - 발표: 2024. 02. 14.(수) 09:00
+     - 등록: 2024. 02. 14.(수) 09:00~16:00
+3. 충원 합격자 2차 발표 및 등록:
+   - 날짜: 
+     - 발표: 2024. 02. 15.(목) 09:00
+     - 등록: 2024. 02. 15.(목) 09:00~16:00
+4. 충원 합격자 3차 이후 발표 및 등록:
+   - 날짜: 
+     - 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+     - 등록: 개별 전화 통보 시 안내
+모든 지원자는 합격 여부를 홈페이지에서 확인해야 하며, 지정된 기간 내에 등록금을 납부해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 면접고사 일정에 대한 정보가 잘못되었습니다. 원본 텍스트에서는 면접고사가 2024년 1월 20일(토)로 명시되어 있지만, 생성된 응답에서는 2024년 1월 16일(화)와 1월 17일(수)로 잘못된 정보를 제공하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 날짜를 제시하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 면접고사 일정에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 정보와는 관련이 적습니다. 원본 텍스트의 날짜와는 다르기 때문에 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 관련성, 정확성 모두에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 의미적으로 일부 적절한 부분이 있지만, 원본 텍스트의 맥락과는 맞지 않기 때문에 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>0.452478722946515</v>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>2024년 1월 16일(화)에 &lt;가&gt;군 실기고사 레저스포츠학과와 태권도학과의 면접고사를 보실 수 있습니다. 이 날짜에는 대기실 및 입실 시간 안내를 받을 수 있으니, 2024년 1월 12일(금) 14:00 이후에 입학안내 홈페이지에서 확인하실 수 있습니다.
+추가 정보:
+- 태권도학과의 경우는 2024년 1월 16일(화)에 면접고사를 보실 수 있습니다.
+- 레저스포츠학과의 경우는 2024년 1월 17일(수)에 면접고사를 보실 수 있습니다.
+상세 일정은 전형일정 표를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 한의예과의 최저학력 기준이 없다는 원문과 상반된 내용을 담고 있습니다. 응답에서는 최저학력 기준이 있다고 명시하고 있으며, 이는 원문과 명백히 모순됩니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일치하지 않으며, 서로 상반된 정보를 제공합니다. 원문에서는 최저학력 기준이 없다고 했지만, 응답에서는 기준이 있다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 응답은 동의대학교 한의예과에 대한 정보를 제공하지만, 원문에서 언급된 핵심 내용인 '최저학력 기준이 없다'는 점과는 관련이 없습니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 일관된 구조를 가지고 있지만, 원문과의 내용 불일치로 인해 전체적인 일관성이 떨어집니다. 원문과의 연결이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 다릅니다. 최저학력 기준이 없다는 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 응답이 원문과 일치하지 않으며, 사실성, 일관성, 정확성 모두에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 의미적으로 상충하며, 원문의 맥락을 왜곡하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 문법적으로 잘 작성되어 있어 이해하기는 쉽지만, 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>0.5910488895647705</v>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 한의예과의 최저학력 기준은 다음과 같습니다:
+- 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자
+이는 전형요소 반영비율 표에서 확인할 수 있으며, 학생부종합(평생학습자전형)의 지원자격 항목에서도 동일하게 명시되어 있습니다.
+추가로, 한의예과는 수능 최저기준이 없으며, 주요 특징은 다음과 같습니다:
+- 수능 영역 중 국어, 수학 (미적분 또는 기하), 영어 등급에 따른 점수를 반영합니다.
+- 탐구 영역은 사회탐구 또는 과학탐구 중 2개 과목을 선택하여 백분위 변환표준점수를 반영합니다.
+따라서, 한의예과는 주로 수능 성적과 학생부 성적으로 평가되며, 최저학력 기준은 고교 졸업(예정)자 또는 법령에 의한 동등 학력을 갖춘 자입니다.</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 정확하게 반영하고 있으며, 추가적인 정보도 관련성이 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 수능 최저학력 기준이 없다는 내용을 반복적으로 강조하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하며, 수능 최저학력 기준에 대한 추가적인 설명을 포함하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 연결되어 있으며, 주제에 대한 명확한 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>0.5060678243958502</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>정시에서 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>2024학년도 동안 제시된 표에서는 정시모집의 경우 수능 최저학력 기준이 없습니다. 관련 정보는 다음과 같습니다:
+- 전형 유형별로 나누어져 있으며, 수능 위주 전형과 실기/실적 위주 전형 등이 있습니다.
+- 각 전형에서 수능최저기준 항목은 모두 "수능최저기준 없음"으로 표시되어 있습니다.
+따라서 2024학년도에 따르면 정시모집에서는 수능 최저학력 기준이 없습니다. 하지만 이는 특정 학교나 전형별로 변동될 수 있으므로, 공식 입학전형요강이나 해당 대학의 웹사이트를 확인하는 것이 가장 정확한 정보를 얻는 방법입니다.
+추가적으로, 만약 최저학력기준이 변경되었거나 추가된 경우에는 공지사항이나 새로운 전형요강을 통해 안내될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 충원합격자 발표 일정의 일부를 정확하게 반영하고 있지만, 1차 및 2차 발표 일정에 대한 언급이 없고, 3차 이후 발표에 대한 추가적인 정보가 포함되어 있어 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 1차 및 2차 발표 일정이 누락되어 있어 일관성이 떨어집니다. 또한, 전화 연락 두절에 대한 언급은 원본 텍스트에 포함되어 있지 않은 정보입니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 충원합격자 발표 일정과 관련된 정보를 제공하고 있으며, 주제와 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있지만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 1차 및 2차 발표 일정의 누락으로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 발표 일정에 대한 정확한 정보를 제공하지만, 1차 및 2차 발표 일정이 누락되어 있어 정확성이 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이지만, 일부 정보의 누락으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 원본 텍스트와 일치하지 않아 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 정보의 누락으로 인해 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>0.7593424616098726</v>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목)부터 2024년 2월 20일(화)까지 충원합격자를 발표합니다. 특히, 3차 이후의 충원합격자 발표에서는 전화 연락 두절로 인해 충원합격 통보가 어려운 경우, 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주될 수 있으므로 이 기간 동안 전화 연락을 받지 못하는 일이 없도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 주요 정보를 포함하고 있으며, 날짜와 시간에 대한 세부사항이 정확하게 반영되어 있습니다. 그러나 "2024. 02. 15.(목) 09:00부터 3차 이후의 추가합격자를 발표합니다."라는 문구는 다소 모호하게 표현되어 있어, 1차 및 2차 발표에 대한 언급이 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 1차 및 2차 발표에 대한 정보가 누락되어 있어 일관성이 떨어집니다. 전체적인 발표 일정에 대한 설명이 부족하여 일관성이 낮다고 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 충원합격자 발표 일정에 대한 정보를 직접적으로 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 및 등록 절차에 대한 설명이 명확합니다. 그러나 1차 및 2차 발표에 대한 언급이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 날짜와 시간에 대한 정보가 정확하지만, 1차 및 2차 발표에 대한 정보가 누락되어 있어 정확성에서 약간의 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 관련성, 유창성, 일관성 등에서 좋은 점수를 받았습니다. 그러나 일부 정보의 누락으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 발표 일정에 대한 적절한 정보를 제공합니다. 다만, 일부 표현이 다소 모호하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 복잡하게 구성되어 있어 약간의 이해도를 떨어뜨릴 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>0.7548348593970983</v>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>2024. 02. 15.(목) 09:00부터 3차 이후의 추가합격자를 발표합니다.
+추가적으로, 3차 이후의 충원 합격자는 다음과 같이 발표 및 등록됩니다:
+- **발표**: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 (개별 전화 통보)
+- **등록**: 개별 전화 통보 시 안내
+모든 지원자는 이 일정을 참고하여 합격 여부를 확인하고 등록금을 지정 기일 내에 납부해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 추가모집의 조건과 관련된 세부사항을 포함하고 있습니다. 그러나 "정시 &lt;나&gt;군"이라는 표현은 원본 텍스트에 명시된 내용과 일치하지 않으며, 이로 인해 약간의 부정확성이 발생합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 대체로 일관성을 유지하고 있습니다. 그러나 "모든 단과대학 및 모집단위에서 추가모집이 이루어지는 것은 아닙니다"라는 문장은 원본 텍스트에서 명시된 내용과는 다소 차이가 있습니다. 이로 인해 약간의 일관성 부족이 발생합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 내용을 잘 다루고 있으며, 추가모집에 대한 구체적인 조건과 예시를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 일부 문장 간의 연결이 더 매끄럽게 이루어질 수 있었던 점이 아쉽습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있습니다. 그러나 "정시 &lt;나&gt;군"이라는 표현은 원본 텍스트의 내용과 일치하지 않으므로 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 세부사항에서의 부정확성과 일관성 부족으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 일부 표현에서 약간의 의미 차이가 발생할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>0.7665226147465986</v>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>2024년도 동일 모집단위에서 추가모집 여부는 정시 모집 때 각 단과대학의 모집인원이 충족되지 않은 경우에만 이월하여 추가로 합격자를 선발할 수 있습니다. 
+특히, 다음과 같은 전형들은 2024년 1월 2일 이후 수시모집에서 등록한 지원자의 등록(입학) 포기로 인해 결원이 발생했을 때 해당 모집인원을 정시 &lt;나&gt;군으로 이월하여 추가로 합격자를 선발할 수 있습니다:
+- 수시모집 실기/실적(경기실적우수자전형)
+- 수시모집 학생부교과(농어촌학생전형) 
+- 수시모집 학생부종합(성인학습자(정원내)전형)
+- 수시모집 학생부종합(성인학습자(정원외)전형)
+- 수시모집 학생부종합(재직자전형)
+- 수시모집 학생부종합(조기취업형계약학과전형)
+따라서, 특정 전형에서 모집인원이 충족되지 않은 경우 해당 전형의 정원을 이월하여 추가로 합격자를 선발할 수 있습니다. 하지만 모든 단과대학 및 모집단위에서 추가모집이 이루어지는 것은 아닙니다.</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3  
+   - 설명: 생성된 응답은 평생학습자전형에 대한 일부 정확한 정보를 포함하고 있지만, "만 30세 이상인 자"라는 조건은 원본 텍스트에 명시되어 있지 않으며, 모집단위에 대한 정보도 다르게 제시되고 있습니다. 따라서 일부 사실이 누락되거나 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 3  
+   - 설명: 생성된 응답은 원본 텍스트의 일부 요소와 일치하지만, 모집단위와 관련된 정보가 다르게 제시되어 있어 일관성이 떨어집니다. 또한, 동점자 처리 기준과 같은 추가 정보는 원본 텍스트에 포함되어 있지 않으므로 일관성이 부족합니다.
+3. Relevance Score (1-5): 4  
+   - 설명: 생성된 응답은 평생학습자전형에 대한 주요 정보를 다루고 있으며, 원본 텍스트의 핵심 주제와 관련이 있습니다. 그러나 일부 세부 사항이 원본 텍스트와 다르기 때문에 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4  
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 정보가 원본 텍스트와 다르기 때문에 완전한 일관성은 없습니다.
+6. Accuracy Score (1-5): 3  
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트에 명시된 특정 세부 사항이 누락되거나 잘못된 정보가 포함되어 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3  
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4  
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 대체로 적합하지만, 일부 세부 사항이 다르게 표현되어 있어 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>0.6880868505312723</v>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 동의대학교에서 평생교육을 받은 사람들을 대상으로 하는 입학전형입니다. 주요 내용은 다음과 같습니다:
+1. 지원자격:
+   - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+   - 만 30세 이상인 자 (1994년 2월 28일 이전 출생)
+2. 모집단위 및 인원:
+   - 인문사회과학대학, 상경대학 등 다양한 학과에서 모집
+3. 전형요소 반영비율:
+   - 서류: 70%
+   - 면접: 30%
+4. 제출서류 (고교 졸업(예정)자):
+   - 고교 학교생활기록부 1부
+   - 검정고시 합격증서 사본 또는 합격증명서 1부
+   - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+   - 학교생활기록부 대체 서류(선택)
+5. 추가제출서류 (외국고교 졸업예정자):
+   - 공증받은 외국고교 졸업(예정)증명서 1부
+   - 공증받은 외국고교 성적증명서 1부
+   - 학교생활기록부 대체 서류 (선택)
+6. 동점자 처리 기준:
+   - 면접고사 성적 상위자
+   - 서류평가 공동체역량 영역 성적 상위자
+7. 기타 유의사항:
+   - 제출기간 및 장소 확인 필요
+   - 서류제출 여부는 홈페이지에서 확인 가능
+평생학습자전형은 평생교육을 받은 사람들의 학업 역량과 전공 적합성을 종합적으로 평가합니다.</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 지원 자격을 포함하고 있지만, 추가적인 조건인 "만 30세 이상인 자 (성인학습자 전형)"과 제출 서류에 대한 정보가 포함되어 있습니다. 원본 텍스트에는 이러한 정보가 없으므로, 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하는 부분도 있지만, 추가된 정보가 원본과 일치하지 않기 때문에 일관성이 떨어집니다. 특히, 성인학습자 전형에 대한 언급은 원본에 없으므로 일관성 점수가 낮습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가된 정보가 원본의 핵심 내용과는 다소 벗어나 있습니다. 그러나 여전히 관련성이 높기 때문에 점수는 4입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 어색함이 있을 수 있어 점수는 4입니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 구조가 있지만, 추가된 정보가 원본과의 연결성을 약화시켜 논리적 흐름이 다소 떨어집니다. 따라서 점수는 3입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 일부 반영하고 있지만, 추가된 정보가 원본에 없는 내용이므로 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 일부 강점을 보이지만, 사실성과 일관성에서 큰 결함이 있어 종합적인 품질 점수는 3입니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본의 의미와 관련이 있지만, 추가된 정보가 원본의 맥락과 다소 어긋나기 때문에 의미 적합성 점수는 3입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 작성되어 있습니다. 그러나 일부 추가 정보로 인해 혼란을 줄 수 있어 점수는 4입니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>0.7738016898687133</v>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 평생학습자전형의 지원 자격은 다음과 같습니다:
+1. 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자
+2. 만 30세 이상인 자 (성인학습자 전형)
+이러한 자격을 갖춘 지원자가 해당 전형에 지원할 수 있습니다.
+추가로, 지원자는 다음과 같은 서류를 제출해야 합니다:
+- 고교 졸업(예정)자 또는 법령에 의한 동등 학력 증명서
+- 2024년 3월 1일 기준으로 총 재직기간이 3년 이상인 증빙 서류
+위 자격 요건과 제출 서류를 충족해야 평생학습자전형에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사 날짜와 대기실 및 입실 시간 안내에 대한 정보를 포함하고 있으며, 원본 텍스트의 사실을 대부분 정확하게 반영하고 있습니다. 그러나 실기고사 날짜에 대한 정보가 추가되었으나, 원본 텍스트에서 명시된 대기실 및 입실 시간에 대한 정보는 명확히 언급되지 않았습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 실기고사에 대한 정보가 추가되었지만, 원본의 내용과 충돌하지 않습니다. 다만, 실기고사 날짜에 대한 정보가 추가된 점에서 약간의 일관성 차이가 있을 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 실기고사에 대한 구체적인 정보를 제공하고 있습니다. 원본 텍스트의 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다. 표현이 자연스럽고 이해하기 쉬운 방식으로 작성되었습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 정보의 흐름이 자연스럽고 일관성이 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사 날짜와 대기실 및 입실 시간 안내에 대한 정보를 정확하게 전달하고 있지만, 원본 텍스트의 특정 세부사항이 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다. 그러나 일부 세부사항의 누락으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>0.6197573082036045</v>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>2024. 01. 16.(화)와 2024. 01. 17.(수)에 실기고사가 진행됩니다.
+- **레저스포츠학과, 태권도학과**의 실기고사는 각각 다음과 같은 날짜에 실시됩니다:
+  - **2024. 01. 16.(화)**: 레저스포츠학과
+  - **2024. 01. 17.(수)**: 태권도학과
+실기고사는 대기실 및 입실 시간 안내가 제공되며, 이 정보는 2024. 01. 12.(금) 14:00 이후에 입학안내 홈페이지에서 확인할 수 있습니다.
+따라서 실기고사는 해당 날짜와 장소로 가셔야 합니다.</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보가 전혀 포함되어 있지 않으며, 주제와 관련된 내용이 아닌 다른 정보들로 구성되어 있습니다. 따라서 사실성과 관련하여 매우 낮은 점수를 부여합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 원본 텍스트의 정보와 상충하는 내용이 포함되어 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 실기고사 대기실 및 입실시간에 대한 질문에 대한 답변이 아닙니다. 따라서 관련성 점수는 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 원본 텍스트와 관련이 없기 때문에 전체적인 평가에는 영향을 미치지 않습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보가 포함되어 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 전혀 맞지 않으며, 주제와도 관련이 없습니다. 따라서 의미 적합성 점수는 매우 낮습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용이 원본 텍스트와 관련이 없기 때문에 전체적인 이해도에는 영향을 미칩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>0.3543135049986942</v>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같이 준비해야 합니다:
+1. **종목별 배점(비율)**:
+   - 제자리 멀리뛰기: 240점 (24%)
+   - 메디신볼 던지기: 243점 (23%)
+   - Z-런: 230점 (23%)
+2. **준비물**:
+   - 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+3. **실기주제**:
+   - 주제A와 주제B를 당일 추첨하여 연결된 주제로 준비해야 합니다.
+   - 예시: 콜라병과 계절 (콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼)와 바이러스, 자유, 여행, 계절, 꿈 중에서 각 1개씩 선정하여 연결된 주제를 준비합니다.
+4. **화지크기**:
+   - 켄트지2절
+5. **시간**:
+   - 5시간
+6. **주의사항**:
+   - 운동복 및 운동화 착용 (스파이크, 축구화 등 특수화는 불가)
+   - 신발바닥에 이물질 가칠 수 없음
+   - 메디신볼 규격: 남자 3kg, 여자 2kg
+   - 부상 또는 기타 사유로 기권한 자(응급환자 포함)에게 최저점수 부여
+   - 각 실기종목별 2회 반칙자에게는 최저점수 부여
+따라서 체육학과의 실기고사는 준비물과 주제를 정해 화지에 그림을 그리는 방식으로 진행되며, 시간은 5시간 동안 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 수시 충원합격자 발표에 대한 잘못된 정보를 포함하고 있습니다. 원문에서는 전화로 개별 연락을 하지 않는다고 명시하고 있지만, 생성된 응답에서는 전화 통보가 이루어진다고 언급하고 있습니다. 이는 원문과 상충하는 내용입니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문에서는 3차 이후에만 개별 전화 통보가 이루어진다고 명시하고 있으나, 생성된 응답에서는 전화 통보가 이루어진다고 주장하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4  
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 잘못된 정보로 인해 주제가 흐트러졌습니다. 그러나 여전히 수시 충원합격자 발표와 관련된 내용을 포함하고 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 내용의 정확성 문제로 인해 약간의 흐름이 방해받을 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 따라서 중간 점수를 부여합니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 상충하는 내용을 포함하고 있어 정확성이 낮습니다. 전화 통보가 이루어진다는 주장은 명백한 오류입니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 따라서 전반적인 품질이 낮다고 평가됩니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 잘못된 정보로 인해 의미적으로 적절하지 않습니다. 그러나 주제와 관련된 내용을 포함하고 있어 중간 점수를 부여합니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 내용의 정확성 문제로 인해 일부 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>0.6398805313591299</v>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락 두절(3회 통화)로 인해 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주하므로, 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화))에 전화 연락을 받지 못하는 일이 없도록 유의하시기 바랍니다.
+따라서 수시 충원합격자 발표 시에는 전화로 통보는 이루어지지만, 3회 이상의 통화 실패 후에는 등록 의사가 없는 것으로 간주될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않다는 사실을 언급하고 있지만, 추가적으로 제공된 정보는 원본 텍스트와 관련이 없고, 잘못된 정보가 포함되어 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보들을 포함하고 있으며, 원본의 핵심 내용과 상충하는 부분이 있습니다. 특히, 수시모집 결과에 대한 정보가 없다는 점을 강조해야 하는데, 다른 정보가 추가되어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 적고, 주어진 질문에 대한 직접적인 답변을 제공하지 않습니다. 원본 텍스트의 핵심 내용인 수시모집 결과에 대한 정보가 아닌 다른 내용이 포함되어 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 언어가 한국어가 아닌 중국어로 작성되어 있어, 한국어 사용자에게는 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 나열하고 있지만, 원본 텍스트와의 연결이 부족하여 논리적인 흐름이 약간 떨어집니다. 원본의 주제와 관련된 정보가 아닌 다른 정보가 포함되어 있어 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 수시모집 결과에 대한 정보가 없다는 점을 간과하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 전반적으로 원본 텍스트와의 일치성이 부족합니다. 사실성, 일관성, 관련성 모두 낮은 점수를 기록했습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 포함하고 있어 의미적으로 부적절합니다. 원본의 주제를 벗어난 내용이 많습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 원본 텍스트와의 관련성이 떨어져서 전체적인 이해가 어렵습니다. 원본의 핵심 내용을 파악하기 힘든 점이 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>0.5900195794905758</v>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有关于2023年警察行政学系的单独招生结果。根据给定的信息，主要包含了以下几个方面的内容：
+1. 招生专业和录取比例表。
+2. 2024年的主要变化事项。
+3. 高中学历类型对应的报考资格。
+4. 报名费信息。
+5. 个人信息提供同意书。
+6. 2024年一般学生型考试（普通学生型）的详细信息，包括各系别、招生单位、招生人数等。
+7. 各种类型的入学考试安排和时间表。
+如果您需要了解2023年警察行政学系的具体录取结果，请访问学校官方网站或联系学校的招生办公室获取最新和准确的信息。因为这些具体数据通常不会在公共信息中详细列出，而是由学校根据实际情况进行管理和公布。</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 정시모집 지원자가 수능에 응시하지 않으면 지원할 수 없다는 원문과 상반된 내용을 담고 있습니다. 일부 전형에서는 수능을 응시하지 않아도 지원이 가능하다고 주장하지만, 이는 원문에서 명시된 사실과 모순됩니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일관성이 전혀 없습니다. 원문은 수능 응시가 필수적이라고 명확히 언급하고 있으나, 생성된 응답은 수능을 응시하지 않아도 지원할 수 있는 전형이 있다고 주장하여 서로 상충하는 정보를 제공합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문에서 제시한 핵심 질문에 대한 직접적인 답변이 아닙니다. 수능 응시 여부에 대한 질문에 대해 다른 전형에 대한 정보를 제공하고 있어 부분적으로 관련성이 있지만, 주제에서 벗어난 부분이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성과 일관성이 결여되어 있어, 정보의 신뢰성에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 전형에 대한 정보를 나열하고 있지만, 원문과의 연결이 부족하여 논리적인 흐름이 약합니다. 원문에서 제시한 질문에 대한 명확한 답변이 부족하여 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제시한 사실과 크게 다릅니다. 원문은 수능 응시가 필수적이라고 명시하고 있으나, 생성된 응답은 이를 부정하는 내용을 담고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받았습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 의미적으로 상충하는 내용을 포함하고 있어, 의미적으로 적절하지 않습니다. 원문의 맥락을 무시하고 다른 정보를 제공하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용의 신뢰성 문제로 인해 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>0.4415005974971982</v>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>2024학년도 입학전형에서 일부 전형에서는 수능을 응시하지 않아도 지원이 가능합니다. 특히, 학생부종합전형과 실기/실적 위주 전형 등은 수능 점수를 요구하지 않을 수 있습니다.
+예를 들어:
+- **학생부종합(평생학습자전형, 성인학습자전형, 재직자전형)**: 이들 전형에서는 수능을 응시하지 않아도 지원이 가능합니다.
+- **실기/실적 위주 전형**: 디자인조형학과, 체육학과 등에서 실기나 경기실적을 중점적으로 평가하므로 수능 점수 없이도 지원할 수 있습니다.
+하지만 대부분의 일반학생전형에서는 수능 성적이 필수적인 요소로 포함되어 있으므로, 수능 응시는 필수입니다. 각 전형별 세부요건은 공식 입학전형 안내를 통해 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지나도 정시 지원이 가능하다는 사실을 잘 반영하고 있습니다. 그러나 동의대학교의 구체적인 전형 요건에 대한 정보가 추가되어 있어, 원문과의 일치성에서 약간의 차이가 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 고등학교 졸업 자격을 유지해야 한다는 점을 강조하고 있으며, 정시 지원 가능성을 잘 설명하고 있습니다. 다만, 특정 전형에 대한 추가적인 자격 요건이 언급되어 있어 약간의 일관성 차이가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제기된 질문에 대해 매우 관련성이 높습니다. 고등학교 졸업 후 10년이 지나도 정시 지원이 가능하다는 주제를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문단이 명확하게 연결되어 있습니다. 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 고등학교 졸업 자격과 관련된 정보를 정확하게 전달하고 있지만, 동의대학교의 구체적인 전형 요건에 대한 정보가 추가되어 있어 약간의 정확성 차이가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 세부 사항에서 원문과의 차이가 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하며, 적절한 맥락에서 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>0.6871272999596335</v>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 정시모집에 대한 정보를 바탕으로 답변 드리겠습니다.
+고등학교 졸업 후 10년이 지났다고 하더라도, 일반적으로 대학은 고등학교 졸업 자격을 갖춘 지원자들을 대상으로 모집합니다. 동의대학교의 경우에도 정시모집에서는 고등학교 졸업(예정)자 또는 법령에 의한 동등학력 소지자를 대상으로 하고 있습니다.
+하지만, 10년이 지난 경우에는 다음과 같은 점을 고려해야 합니다:
+1. **법적 학력**: 여전히 고등학교 졸업 자격을 유지하고 있어야 합니다.
+2. **수능 성적**: 일부 전형에서는 수능 성적이 필요할 수 있습니다.
+3. **기타 자격**: 특정 전형에서는 추가적인 자격 요건이 있을 수 있습니다.
+따라서, 10년이 지났다고 해도 정시 지원이 불가능하지는 않습니다. 다만, 다음과 같은 절차를 따르셔야 합니다:
+- **학력 확인**: 고등학교 졸업 증명서를 준비해야 합니다.
+- **수능 성적**: 일부 전형에서는 수능 성적이 필요할 수 있으므로 이를 준비해두세요.
+- **지원 자격 확인**: 해당 전형의 지원 자격을 다시 한번 확인하시기 바랍니다.
+만약 특정 전형에 대해 더 자세한 정보가 필요하다면, 동의대학교 입학처 웹사이트나 학교 관계자에게 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 일정과 세부사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>0.8497472636568645</v>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집의 주요 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화)
+   - 입학안내 홈페이지에서 공고됩니다.
+2. **원서접수(인터넷)**: 2024년 1월 3일 (수) ~ 2024년 1월 6일 (토) 마감일 18시까지
+   - 접속이 차단되는 시간은 2024년 1월 6일 (토) 18시 정각입니다.
+   - 사전에 미리 접속하여 지원 내용 입력 및 전형료 결제를 완료해야 합니다.
+3. **서류 제출 (제출서류가 있는 경우)**: 2024년 1월 3일 (수) ~ 2024년 1월 12일 (금) 마감일 17시까지 도착
+   - 서류 제출 대상자는 우편발송용 표지를 출력하여 봉투에 부착 후 제출서류를 송부해야 합니다.
+4. **&lt;가&gt;군 실기고사**: 2024년 1월 16일 (화)
+   - 레저스포츠학과, 태권도학과의 경우입니다.
+   - 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.
+5. **&lt;나&gt;군 실기고사**: 2024년 1월 17일 (수)
+   - 디자인조형학과, 체육학과의 경우입니다.
+   - 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일 (금) 14:00
+     - 홈페이지에서 개별 조회 가능
+     - 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령
+     - 등록장소: 학교 지정은행 (등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024년 2월 7일 (수) ~ 13일 (화) (은행마감시간 내)
+     - 홈페이지에서 개별 조회
+     - 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령
+     - 등록장소: 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 1차 발표 및 등록: 2024년 2월 14일 (수) 09:00
+     - 홈페이지에서 개별 조회
+     - 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령
+     - 등록장소: 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 2차 발표 및 등록: 2024년 2월 15일 (목) 09:00
+     - 홈페이지에서 개별 조회
+     - 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령
+     - 등록장소: 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 발표 및 등록: 2024년 2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지
+     - 홈페이지에서 개별 조회
+     - 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령
+     - 등록장소: 학교 지정은행 (등록금 고지서에 기재)
+이 일정을 준수하여 지원해야 하며, 특히 원서접수 마감일과 서류 제출 마감일 등을 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 날짜와 절차에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 포인트를 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 흐름을 가지고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 왜곡이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>0.8660710135200159</v>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 정시 모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화)
+2. **원서접수(인터넷)**:
+   - 접수기간: 2024년 1월 3일 (수) ~ 2024년 1월 6일 (토), 마감일 18시까지
+   - 접수사이트: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출**:
+   - 제출기간: 2024년 1월 3일 (수) ~ 2024년 1월 12일 (금), 마감일 17시까지 도착
+   - 서류제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+4. **실기고사**:
+   - &lt;가&gt;군 실기고사 (레저스포츠학과 태권도학과): 2024년 1월 16일 (화)
+   - &lt;나&gt;군 실기고사 (디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과): 2024년 1월 17일 (수)
+5. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일 (금) 14시
+   - 최초 합격자 등록: 2024년 2월 7일 (수) ~ 2024년 2월 13일 (화), 은행마감시간 내
+   - 충원 합격자 발표 및 등록: 
+     - 1차: 2024년 2월 14일 (수) 9시, 2024년 2월 14일 (수) 16시까지
+     - 2차: 2024년 2월 15일 (목) 9시, 2024년 2월 15일 (목) 16시까지
+   - 3차 이후 충원 합격자 발표 및 등록: 개별 전화 통보 시 안내
+이 일정은 일반적으로 동의대학교 정시 모집에서 지원자가 준수해야 하는 주요 단계입니다. 각 단계마다 중요한 정보가 있으므로, 지원자는 해당 기간 내에 필요한 서류를 제출하고 원서를 접수하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에서 수능 미응시자가 지원할 수 있는 전형이 있다고 주장하지만, 원문에서는 수능 성적이 요구되며 수능 미응시자는 지원이 불가능하다고 명확히 언급하고 있습니다. 따라서 생성된 응답은 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서는 수능 미응시자가 지원할 수 없다고 명시되어 있는데, 생성된 응답은 여러 전형에서 수능이 필요하지 않다고 주장하고 있습니다. 이는 명백한 불일치입니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제시된 질문과 관련이 없으며, 잘못된 정보를 바탕으로 하고 있습니다. 원문은 수능 미응시자의 지원 불가능성을 강조하고 있지만, 생성된 응답은 그와 반대되는 내용을 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성을 고려할 때, 이 점은 크게 의미가 없습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 전형에 대한 정보를 나열하고 있지만, 원문과의 관계가 명확하지 않아 전체적인 일관성이 떨어집니다. 원문과의 연결이 부족하여 논리적 흐름이 약합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 수능 미응시자는 지원이 불가능하다는 사실을 무시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용의 정확성과 관련성이 결여되어 있어 전체적인 이해에는 한계가 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>0.7012623607930306</v>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집에서 수능을 미응시한 학생도 지원할 수 있는 전형은 다음과 같습니다:
+1. **학생부종합(평생학습자전형)** - 이 전형에서는 수능이 필요하지 않습니다.
+2. **학생부종합(성인학습자(정원내)전형)** - 이 전형에서도 수능이 필요하지 않습니다.
+3. **학생부종합(성인학습자(정원외)전형)** - 이 전형 역시 수능이 필요하지 않습니다.
+4. **학생부종합(재직자전형)** - 이 전형에서는 수능이 필요하지 않습니다.
+5. **학생부종합(조기취업형계약학과전형)** - 이 전형에서도 수능이 필요하지 않습니다.
+이러한 전형들은 주로 학생부 교과성적, 면접 성적 등 다른 평가 기준을 통해 지원자를 선발합니다.</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 전년도 전자공학과의 충원 합격에 대한 구체적인 정보를 제공하지 않고 있으며, 2024년 모집에 대한 예측을 포함하고 있습니다. 그러나 원본 텍스트에서는 충원 합격 차수에 대한 정보가 없다고 명시되어 있어, 이 부분에서 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. 원본 텍스트는 충원 합격 차수에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 3차 이후까지 이루어질 수 있다고 주장하고 있습니다. 이는 서로 모순되는 내용입니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 전자공학과의 충원 합격에 대한 정보를 다루고 있어 관련성이 높지만, 원본 텍스트의 핵심 정보인 충원 합격 차수에 대한 부정확한 해석이 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적으로 연결된 내용을 포함하고 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 특히, 원본 텍스트의 정보와 충돌하는 부분이 있어 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있으며, 특히 충원 합격 차수에 대한 잘못된 해석이 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받고 있으며, 이로 인해 전체적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다. 따라서 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>0.5527179615882061</v>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>2024년 모집에서 전자공학과의 충원 합격은 3차 이후까지 이루어질 수 있습니다. 이는 지원자 유의사항 (합격자(최초 및 충원) 발표 및 등록금 납부)에 따르면, "3차 이후 충원합격자 발표 과정에서 전화 연락 두절(3회 통화)로 인해 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주하므로 충원합격자 발표 기간(2024년 2월 15일(목)~2024년2월 20일(화))에 전화 연락을 받지 못하는 일이 없도록 유의하시기 바랍니다."라고 명시되어 있습니다. 따라서 전년도에도 비슷한 절차가 적용되었을 가능성이 높습니다.</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학관리팀의 연락처를 정확하게 제공하지 않고 있으며, 잘못된 정보(유웨이어플라이의 전화번호)를 포함하고 있습니다. 원본 텍스트에 명시된 전화번호와 관련된 정보가 누락되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 동의대학교의 입학처 전화번호에 대한 정보가 부정확하고 모순된 내용을 포함하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 입학처와 관련된 정보를 제공하려고 하지만, 주제와 관련된 핵심 정보를 제공하지 않아 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 표현되어 있어 약간의 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 부족하여 일관성이 떨어집니다. 정보가 분산되어 있어 독자가 이해하기 어려울 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보가 포함되어 있습니다. 동의대학교의 정확한 연락처를 제공하지 않고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다. 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 잘못된 정보가 포함되어 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 일부 부분에서 이해하기 어려운 요소가 있지만, 전반적으로는 어느 정도 이해할 수 있는 내용입니다. 그러나 정보의 분산으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>0.6020007280369838</v>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 동의대학교 입학관리 관련 연락처는 다음과 같습니다:
+(주)유웨이어플라이 : 1588-8988 (http://www.uwayapply.com)
+하지만 정확한 동의대학교 입학처 전화번호가 직접적으로 나와 있지 않습니다. 제공된 정보를 기반으로 추측하자면, 일반적인 대학교 입학처 연락처는 주로 051-290-XXXX 형식일 가능성이 높습니다. 실제 번호는 동의대학교 공식 홈페이지나 전화로 확인하시는 것이 가장 정확할 것입니다.
+추가적으로, 제공된 정보에는 개인정보 제공 동의와 관련하여 "우리대학 입학관리위원회"라는 단어가 나왔지만, 이委员会，您提供的信息中并没有直接提到东义大学入学处的具体电话号码。根据给出的信息，与入学管理相关的联系方式是：
+(주)유웨이어플라이 : 1588-8988 (http://www.uwayapply.com)
+但是，为了获取最准确的入学处联系电话，建议您直接访问东义大学的官方网站或通过其他官方渠道进行查询。</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 전화 통화가 되지 않을 경우의 절차에 대해 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서는 전화 연락이 두절되면 해당 지원자는 등록 의사가 없는 것으로 간주된다고 명시되어 있지만, 생성된 응답에서는 홈페이지에서 개별 조회가 가능하다고 언급하고 있어 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 제공합니다. 원본 텍스트는 전화 통화가 되지 않을 경우 등록 포기자로 처리된다고 명시하고 있지만, 생성된 응답은 다른 절차를 제시하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 전화 통화가 되지 않을 경우의 처리 방식에 대한 정보가 잘못되어 있어 일부 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보가 서로 연결되지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 전화 통화가 되지 않을 경우의 처리 방식에 대한 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 일부 일치하지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>0.6186147698369968</v>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>3차 이후의 충원합격자는 개별 전화통보 방식으로 발표됩니다. 그러나 전화 통화가 되지 않을 경우 다음과 같은 절차로 처리됩니다:
+1. **발표 방법**: 홈페이지에서 개별 조회 가능합니다.
+2. **고지서 교부**: 홈페이지에서 출력하거나 입학관리팀에서 수령이 가능합니다.
+3. **등록장소**: 학교 지정은행으로 등록금을 납부해야 합니다 (등록금 고지서에 기재된 정보를 참고).
+따라서, 전화 통화가 되지 않더라도 지원자는 반드시 홈페이지를 통해 합격 여부를 확인하고, 필요시 입학관리팀에서 상세한 안내를 받는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 필요한 서류와 제출 기간, 제출 장소 등 모든 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 서류 목록과 추가 정보가 일치합니다. 서로 모순되는 내용이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 필요한 서류와 제출 정보에 대해 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러우며, 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있어 이해하기 쉽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 정보의 정확성에 문제가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 직관적이며, 이해하기 쉽습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>0.8986232224598133</v>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>6년 과정과 12년 과정에 따라 농어촌학생전형으로 지원시 제출해야 할 서류가 다릅니다.
+### 6년 과정
+- 지원자 본인의 가족관계증명서 1부
+- 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+- 중학교 학교생활기록부 1부 
+- 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+### 12년 과정
+- 지원자 본인의 주민등록초본 1부
+- 초등학교 학교생활기록부 1부
+- 중학교 학교생활기록부 1부
+- 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+**추가 제출서류:**
+- 부모가 사망한 경우, 사망한 부 또는 모의 기본증명서 1부
+- 부모가 이혼한 경우, 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부와 본인의 기본증명서(상세) 1부
+**기타 정보:**
+- 제출기간 : 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+- 제출장소 : (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+- 주민등록초본은 고교졸업 이후 발급되어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.
+- 서류제출 여부는 홈페이지에서 확인 가능하며, 반드시 본인의 서류제출 여부를 확인하여야 하고 미제출 또는 미확인으로 인한 불이익은 전적으로 지원자 본인에게 있습니다.</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 제출해야 할 서류 목록을 정확하게 나열하고 있으며, 추가적인 설명도 포함되어 있습니다. 그러나 "3년간의 학교생활기록부"라는 언급은 원본 텍스트에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 대부분 일치하지만, "부모의 거주지와는 상관없이"라는 추가 정보는 원본 텍스트에 포함되어 있지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 서류에 대한 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽지만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 추가된 정보가 원본과의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 대부분 정확하지만, "3년간의 학교생활기록부"라는 언급이 원본에 없으므로 정확성에서 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 높은 품질을 유지하고 있으나, 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 추가된 정보가 원본의 의미를 약간 왜곡할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 일부 추가 정보가 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>0.8214674333490158</v>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원시 제출해야하는 서류는 다음과 같습니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부 
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)
+주요 특징:
+- 부모의 거주지와는 상관없이 지원자의 초·중·고등학교 재학기간 동안 농어촌 지역 소재 학교에서 교육을 받았다면 지원 가능
+- 제출서류 중 학교생활기록부는 온라인 제공이 가능한 경우 제출하지 않아도 됨
+따라서 주민등록초본과 3년간의 학교생활기록부만 추가로 제출하면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 기회균등 전형이 존재하지 않는다는 사실을 명확히 반영하지 않고 있으며, 오히려 불확실성을 강조하고 있습니다. 이는 원문과 상충되는 정보입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 없으며, 기회균등 전형의 존재 여부에 대한 모호한 언급이 원문과 상반됩니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 언급된 기회균등 전형에 대한 질문에 대한 직접적인 답변을 제공하지 않고, 대신 일반적인 정보 제공을 제안하고 있습니다. 따라서 관련성은 있지만, 핵심 질문에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어로 작성된 원문과는 다른 언어로 작성되어 있어, 한국어 사용자에게는 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있으나, 원문과의 연결성이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 정확한 정보를 반영하지 않으며, 기회균등 전형의 존재 여부에 대한 잘못된 해석을 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답은 원문과의 일치성이 낮고, 정보의 정확성 및 관련성이 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과의 의미적 일치성이 떨어지며, 기회균등 전형에 대한 명확한 정보를 제공하지 않고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 읽기 쉬운 구조를 가지고 있지만, 원문과의 관련성이 부족하여 이해하는 데 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>0.5259496973432042</v>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>提供的信息中没有明确提到是否在普通招生（정시모집）中进行低收入机会均等类型的录取。根据现有内容，无法确定是否有此类专门的低收入学生录取计划。建议直接访问学校官网或联系学校的招生办公室以获取最准确的信息。
+如果您需要了解更多信息，可以参考以下链接：
+https://ipsi.deu.ac.kr/main.do
+或者您可以直接咨询学校招生办公室确认是否有关于低收入学生的特殊录取政策。</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 영어영역의 등급 절사에 대한 정보를 포함하고 있지만, 원본 텍스트에서 언급된 사탐 2 과목 평균산출에 대한 구체적인 절사 여부에 대한 정보가 없다는 점을 무시하고 있습니다. 따라서 사실관계가 정확하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 제공합니다. 원본 텍스트는 사탐 2 과목 평균산출에 대한 절사 여부에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 절사된다고 주장하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 수능 영어영역의 절사 규칙에 대한 정보를 제공하지만, 질문의 핵심인 사탐 2 과목 평균산출에 대한 정보와는 관련성이 떨어집니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 부족하여 일관된 주제를 유지하지 못하고 있습니다. 따라서 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 정보를 포함하고 있습니다. 특히, 절사 여부에 대한 잘못된 해석이 포함되어 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실관계, 일관성, 정확성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있어 의미적 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 내용이 혼란스러울 수 있어 이해 가능성이 다소 낮아질 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>0.581755507334049</v>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어영역의 등급은 소수점 셋째자리에서 절사한다는 내용이 포함되어 있습니다.
+따라서, 사탐(사회) 2과목 평균산출에서 2.5등급이 나온다면, 이는 절사되기 때문에 2등급으로 반영됩니다.
+[표 추가내용]에 따르면 "등급 평균 산출 시 소수점 셋째자리에서 절사합니다."라고 명시되어 있습니다. 따라서 2.5등급은 3등급보다 낮게 반영되므로 2등급으로 처리됩니다.
+결론적으로, 사탐 2과목 평균산출에서 2.5등급이 나온다면 2등급으로 반영될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 정시 충원 합격자 발표가 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표된다는 사실을 정확하게 반영하고 있습니다. 그러나 "나군 실기/실적(경기실적우수자전형)을 제외한 정시모집 전반에 걸쳐"라는 부분은 원문에 명시되어 있지 않은 정보로, 다소 불필요한 추가 정보입니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, "나군 실기/실적(경기실적우수자전형)"이라는 언급이 원문에 없기 때문에 일관성이 떨어집니다. 이로 인해 원문과의 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 발표 일정에 대한 정보를 잘 전달하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정에 대한 정보가 명확하게 전달됩니다. 그러나 "나군 실기/실적" 부분이 추가되면서 약간의 흐름이 방해받을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공하는 정보의 정확성을 잘 반영하고 있지만, 추가된 정보가 원문에 없는 내용이므로 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 일부 추가 정보로 인해 일관성과 정확성이 약간 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과의 의미적 일치도가 높지만, 추가된 정보가 원문과의 맥락에서 다소 어색하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 표현이 다소 복잡할 수 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>0.7345127008715098</v>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>2024년 동기의 정시 모집에서는 나군 실기/실적(경기실적우수자전형)을 제외한 정시모집 전반에 걸쳐 충원 합격자가 발표됩니다. 
+발표 일정은 다음과 같습니다:
+1차: 2024년 2월 14일 (수)
+2차: 2024년 2월 15일 (목)
+이후 3차 이후의 충원 합격자는 개별 전화 통보 방식으로 발표됩니다. 
+따라서 정시 충원 합격자 발표는 총 3차까지 있습니다.</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 e-비즈니스학과의 입학 정보에 대한 구체적인 내용을 제공하지 않으며, 원본 텍스트의 주요 사실을 잘못 해석하거나 생략하고 있습니다. 예를 들어, 원본 텍스트는 수능 4개 영역 등급이 4.6점일 경우의 가능성을 설명하고 있지만, 생성된 응답은 이와 관련된 정보를 제공하지 않고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 수능 성적에 대한 구체적인 정보를 제공하고 있으며, 충원 합격 가능성에 대한 언급이 있지만, 생성된 응답은 이와 관련된 내용을 다루지 않고 다른 정보를 제시하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 주제와 관련성이 낮습니다. 원본 텍스트는 수능 성적에 따른 합격 가능성에 대한 질문에 대한 답변을 제공하고 있지만, 생성된 응답은 다른 주제에 대한 정보를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본 텍스트와의 관련성이 떨어지기 때문에 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다. 주제가 전환되면서 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하지 않으며, 잘못된 정보나 생략된 정보가 많습니다. 특히, 수능 성적에 대한 구체적인 평가가 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 낮은 점수를 받습니다. 사실성, 일관성, 관련성 모두 부족하여 전체적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 내용을 포함하고 있습니다. 원본 텍스트의 질문에 대한 적절한 답변이 아닙니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 문법적으로는 이해할 수 있지만, 원본 텍스트와의 관련성이 떨어져서 질문에 대한 명확한 답변으로 이해하기 어렵습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>0.4992480291958205</v>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看ebiznesis学部(e비즈니스학과)的相关招生信息。根据提供的表格内容，“多军（一般学生入学考试）”的招生信息如下：
+```plaintext
+多军（一般学生入学考试） / ebiznesis学部 (e비즈니스학과) / 45人 (7人)
+```
+这表明ebiznesis学部在“多军（一般学生入学考试）”中计划招收45名学生。
+关于成绩要求，表格显示：
+```plaintext
+多军（一般学生入学考试） / 所有招生单位 / {100% /}
+```
+这意味着所有招生单位的成绩占比为100%，即主要依赖于高考成绩。但是具体到ebiznesis学部的最低分数线没有直接给出。
+通常情况下，大学会有一个最低录取分数要求（即“最低合格线”），如果考生的高考成绩达到或超过这个分数线，则有可能被录取。但具体的最低分数线需要参考学校官方发布的招生简章或者咨询学校的招生办公室。
+根据提供的信息，我们无法确定4.6分是否达到了ebiznesis学部的最低录取分数要求。因此，建议直接联系东国大学（동의대학교）的招生办公室或访问其官方网站获取更准确的信息。
+总结：仅凭现有信息无法判断4.6分能否被ebiznesis学部录取。需要进一步查询具体的最低录取分数线。</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 e비즈니스학과의 평균 등급과 관련된 정보를 포함하고 있지만, 원본 텍스트에서 제공된 구체적인 수치(영어 등급 평균 3.66, 수능 4개 영역 등급 평균 4.53)를 명확히 반영하지 않고 있습니다. 또한, e비즈니스학과의 모집요강에 대한 정보는 원본 텍스트에 포함되어 있지 않으며, 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않는 부분이 많습니다. 예를 들어, 모집요강과 관련된 정보는 원본 텍스트에 없으며, 경쟁률에 대한 언급도 원본 텍스트와는 관련이 없습니다. 따라서 일관성이 낮습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주제에서 벗어난 정보가 포함되어 있어 관련성이 떨어집니다. 원본 텍스트의 핵심 내용인 합격 가능성에 대한 정보는 포함되어 있으나, 추가된 정보는 필요하지 않은 내용입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 약간의 이해를 방해할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요소를 포함하고 있지만, 논리적인 흐름이 부족하여 일관된 주제를 유지하지 못하고 있습니다. 각 요소 간의 연결이 약해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있으며, 특히 모집요강과 관련된 내용은 원본 텍스트에 명시된 바가 없습니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성 모두에서 부족한 부분이 많습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 일부 내용은 원본 텍스트의 맥락과 맞지 않거나 부적절한 정보가 포함되어 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있지만, 일부 복잡한 문장 구조로 인해 명확성이 떨어질 수 있습니다. 따라서 이해하기 쉬운 정도는 중간입니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>0.5994537931568763</v>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. **e비즈니스학과의 모집요강**：根据提供的信息，e비즈니스学和的录取标准是“实操/成绩（30%）+论文（70%）”。这意味着主要依赖于学生的实操能力和学术表现。
+2. **5.3等值的分数**：在韩国大学入学考试中，等级分为1到9级。5.3通常对应的是B等级或接近B等级的成绩。根据提供的成绩表：
+   - 5等（B等级）对应的分数是107分。
+3. **e비즈니스学和的录取标准**：虽然没有直接给出具体的分数线，但可以参考其他类似专业的录取情况来推测。
+4. **竞争情况**：从表格中可以看到，e비즈니스学和的竞争率（竞争人数与招生名额之比）为8.90。这意味着每个名额有近9名学生竞争。
+综合以上信息：
+- 5.3等的成绩在韩国大学入学考试中属于中上水平。
+- e비즈尼斯学和的录取标准主要依赖于实操能力和学术表现，而5.3等的成绩在学术方面是符合要求的。
+- 竞争率较高（8.90），意味着竞争激烈。
+因此，虽然有5.3等的成绩可以提高被录取的机会，但能否成为最开始的合格者还取决于其他因素如实操成绩、论文质量以及面试表现等。总体来说，有一定机会，但并不是非常高。建议考生在准备过程中注重提升实操能力和完善论文内容以增加竞争力。
+如果需要更准确的信息，建议直接咨询东国大学或查看最新的招生简章和录取分数线。</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 왜곡하고 있으며, e비즈니스학과의 예비 합격 가능성에 대한 정보를 제공하지 않고, 전혀 관련 없는 점수 기준을 제시하고 있습니다. 원본 텍스트의 핵심 정보를 반영하지 않기 때문에 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 예비 38번의 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답은 점수 기준에 대한 설명을 제공하며, 예비 합격 가능성에 대한 언급이 없습니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 예비 합격 가능성에 대한 질문에 대한 답변을 요구하고 있지만, 생성된 응답은 전혀 다른 주제인 점수 기준에 대해 설명하고 있습니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 원본 텍스트와 관련이 없기 때문에 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 떨어집니다. 주제가 전환되면서 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 예비 합격 가능성에 대한 정보가 전혀 반영되지 않았습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 연관성이 없고, 잘못된 정보를 제공하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 주제와 관련이 없는 내용을 담고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 원본 텍스트와의 관련성이 없기 때문에 전체적인 이해도는 떨어집니다. 내용이 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>0.5114657754851499</v>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>为了评估您是否有资格被预录取，我们需要考虑以下几个因素：
+1. **成绩**：根据提供的表格数据，e비즈니스학과的预录取标准如下：
+   - 共同体能力：120分
+   - 学业能力：240分
+   - 专业适应性：240分
+   总分为600分。
+2. **您的成绩**：您提供的信息是38名预录取，但没有具体的成绩分数。我们需要知道具体的分数来评估是否达到标准。
+假设您能提供以下具体分数：
+- 共同体能力（120分）
+- 学业能力（240分）
+- 专业适应性（240分）
+如果您的总分达到了600分，那么预录取的可能性较大。否则，可能需要进一步提高某些方面的成绩。
+请提供具体的分数以便进行更准确的评估。</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답에서 "최종합격자의 평균 수능 4개 영역 등급"이 5.92로 언급되었으나, 원본 텍스트에서는 이 정보가 제공되지 않았습니다. 따라서 이 부분은 사실과 일치하지 않으며, 전체적으로 응답이 원본의 정보와 일치하지 않는 부분이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 반영하고 있지만, 평균 수능 등급에 대한 잘못된 정보가 포함되어 있어 일관성이 떨어집니다. 또한, 응답이 제시하는 추가적인 요소들은 원본 텍스트와는 다소 다른 방향으로 해석되고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 합격 가능성에 대한 다양한 요소를 고려하고 있습니다. 그러나 일부 정보는 원본 텍스트와 직접적으로 관련이 없거나 불필요한 세부사항이 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 평균 수능 등급에 대한 잘못된 정보가 포함되어 있어 전체적인 일관성에 영향을 미칠 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 사실을 반영하고 있지만, 평균 수능 등급에 대한 잘못된 정보가 포함되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균 이상의 성과를 보이지만, 사실성과 정확성에서의 문제로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 합격 가능성에 대한 다양한 요소를 잘 설명하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>0.5473586248122754</v>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>3.44이라는 점수만으로는 확실한 합격 여부를 판단하기 어렵습니다. 동의대학교 간호학과의 최종합격자들의 성적 분포를 보면 다음과 같습니다:
+1. **최종합격자의 평균 영어 등급**: 2.34 (간호학과)
+2. **최종합격자의 평균 수능 4개 영역 등급**: 5.92
+당신의 성적(국어+수학+탐구: 3.44)은 이들보다 약간 낮습니다. 그러나 동의대학교 간호학과는 다양한 요소를 고려하여 합격자를 선발하므로, 다음과 같은 점들을 고려해볼 필요가 있습니다:
+1. **전형요소**: 서류평가, 면접 등이 포함되어 있으므로, 이들에서도 좋은 평가를 받을 수 있다면 기회는 남아 있을 수 있습니다.
+2. **경쟁률**: 현재의 지원자 중에서 당신보다 낮은 점수를 가진 지원자가 얼마나 있는지 확인해야 합니다.
+3. **개인 특성**: 학교생활, 활동 경력 등 개인적인 성장과 경험도 고려됩니다.
+따라서, 단순히 성적만으로 판단하기보다는 전반적인 지원 자질을 평가받아야 합니다. 만약 확신이 없다면, 동의대학교 입학 홈페이지나 관련 컨설팅 서비스를 통해 상세한 정보를 얻거나 전문가와 상담하는 것이 좋습니다.
+또한, 다른 대학이나 학과도 고려해보는 것도 좋은 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 동의대학교 간호학과의 합격 가능성에 대한 부정적인 결론을 내리고 있지만, 원본 텍스트에서는 2.52의 성적이 평균 등급보다 높아 합격 가능성이 높다고 언급하고 있습니다. 이로 인해 사실관계가 일치하지 않습니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트와 상반된 정보를 제공합니다. 원본에서는 2.52가 평균 등급보다 높다고 했으나, 생성된 응답은 합격이 어렵다고 주장합니다. 이로 인해 일관성이 부족합니다.
+3. Relevance Score (1-5): 4  
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 원본의 긍정적인 내용을 반영하지 않고 부정적인 정보에 초점을 맞추고 있습니다. 그러나 여전히 간호학과의 합격 가능성에 대한 질문에 답하고 있으므로 관련성이 높습니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4  
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본과의 불일치로 인해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있습니다. 특히, 성적 기준과 합격 가능성에 대한 정보가 잘못 해석되었습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 불일치가 두드러지며, 사실관계와 일관성에서 낮은 점수를 받았습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다소 다르게 해석되었지만, 여전히 관련된 주제를 다루고 있습니다. 그러나 원본의 긍정적인 의미를 왜곡하고 있습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 이유를 제시하고 있습니다. 그러나 원본과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>0.6330344550827645</v>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>2.52라는 성적을 가지고 동의대학교 간호학과에 최종합격하기는 매우 어려울 것으로 보입니다.
+이유는 다음과 같습니다:
+1. 간호학과 모집인원 및 지원자 수:
+   - 간호학과는 총 22명을 모집합니다.
+   - 지원자는 145명으로, 경쟁률이 매우 높습니다 (6.59).
+2. 최종 합격자의 성적 분포:
+   - 최종합격자들의 평균 국어+수학+탐구(가산점 포함) 표준 변환 점수가 481.70입니다.
+   - 이는 매우 높은 점수이며, 2.52보다 훨씬 높습니다.
+3. 성적 기준:
+   - 동의대학교 간호학과는 비교적 높은 수능 최저점수를 요구합니다 (1.86 등급 이상).
+   - 2.52는 이 기준을 충족하지 못합니다.
+4. 경쟁률이 매우 높기 때문에:
+   - 성적이 낮은 지원자는 거의 합격할 확률이 없습니다.
+   - 대부분의 합격자들은 3.0 이상의 국어+수학+탐구 점수가 필요합니다.
+따라서, 현재의 성적 상태로는 동의대학교 간호학과에 최종합격하기가 매우 어려울 것으로 예상됩니다. 성적이 더 높아지거나 다른 전략을 고려해야 할 수도 있습니다.</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 관련된 정보를 포함하고 있으며, 3.7의 GPA가 중간적인 점수라는 점을 언급하고 있습니다. 그러나, "합격 가능성이 낮다"는 원문에서의 명확한 결론을 다소 약화시키고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제시된 정보와 일치하는 부분이 있지만, GPA에 대한 해석이 다소 다르게 나타나고 있습니다. 원문은 합격 가능성이 낮다고 명시했으나, 생성된 응답은 가능성이 있다고 언급하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 간호학과에 입학하기 위한 여러 요소를 고려하고 있으며, 원문에서 제시된 GPA와 관련된 질문에 직접적으로 답변하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나, 원문과의 연결이 약간 느슨해 보일 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보에 기반하여 정확하게 작성되었으나, GPA에 대한 해석에서 약간의 차이가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되었으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 높지만, GPA에 대한 해석에서 약간의 차이가 있어 완벽한 일치는 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>0.6157808786022386</v>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>3.7의 GPA는 중간적인 점수로, 간호학과에 입학하기 위해서는 몇 가지 요소를 고려해야 합니다:
+1. **전체 경쟁률**: 간호학과는 일반적으로 매우 높은 경쟁률을 보입니다. 특히 정시 모집에서는 더욱 치열합니다.
+2. **수능 성적**: 수능 성적이 중요합니다. 간호학과는 주로 수능 과탐(생물) 점수가 높은 학생들을 선호하기도 합니다.
+3. **추천서 및 자기소개서**: 일부 대학에서는 추천서나 자기소개서를 요구할 수 있습니다.
+4. **면접 성적**: 면접에서도 좋은 평가를 받는 것이 중요합니다.
+5. **기타 요인**: 학교마다 다른 기준이 있을 수 있으므로, 해당 대학의 정시 모집요강을 꼭 확인해야 합니다.
+3.7 GPA로 간호학과에 합격할 가능성은 있습니다만, 경쟁률이 매우 높아서 확실한 것은 아닙니다. 다음과 같은 조언들이 도움이 될 수 있습니다:
+- **수능 성적 강화**: 수능 과목 중 생물 점수가 높은 것이 좋습니다.
+- **추천서 및 자기소개서 작성**: 잘 준비된 추천서와 자기소개서는 큰 도움이 됩니다.
+- **면접 준비**: 면접에서도 좋은 평가를 받을 수 있도록 충분히 준비해야 합니다.
+결국, 최종 합격 여부는 해당 대학의 정시 모집요강과 경쟁률에 따라 결정됩니다. 따라서, 가능한 한 많은 정보를 수집하고, 여러 대안을 고려하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 지원자의 성적 2.58이 간호학과의 평균 등급보다 낮다고 주장하고 있지만, 원본 텍스트에서는 2.58이 평균 등급보다 높은 성적이라고 명시하고 있습니다. 이로 인해 사실관계에 큰 오류가 발생했습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상반된 정보를 제공하고 있습니다. 원본 텍스트는 2.58이 평균보다 높은 성적이라고 하지만, 생성된 응답은 이를 반박하며 낮은 성적이라고 주장합니다. 이로 인해 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 경쟁률과 성적 분석에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 질문인 합격 가능성에 대한 직접적인 답변은 부족합니다. 그러나 관련된 정보를 포함하고 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 지원자의 성적에 대한 잘못된 해석을 포함하고 있습니다. 이로 인해 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실관계와 일관성에서 큰 오류가 있으며, 정확성 또한 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 의미와는 다소 어긋나는 부분이 있습니다. 따라서 적절성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 일부 내용이 혼란을 줄 수 있어 완벽한 점수는 아닙니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>0.6147462550561568</v>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 정시 모집에서 지원자의 성적을 분석해보겠습니다.
+간호학과의 최초합격자 표를 보면, 국어국문학과와 중어중국학과 등 다른 학과들과 마찬가지로 2024학년도 간호학과의 모집인원은 22명이며 지원 인원이 88명으로 많은 경쟁률을 보이고 있습니다.
+간호학과 최초합격자 표에서 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 407.50, 표준 편차는 12.13입니다.
+지원자의 성적인 2.58을 이 표준으로 보자면:
+- 2.58은 표준점수로 볼 때 매우 낮은 점수입니다.
+- 평균이 407.50이고 표준 편차가 12.13인 분포에서 2.58은 약 -30.67표준편차 밑에 위치합니다.
+이는 매우 낮은 성적을 의미하며, 이는 대부분의 합격자들보다 훨씬 낮습니다. 실제로 표준점수 평균과 비교했을 때, 2.58은 매우 낮은 점수로, 일반적으로 합격 가능성은 매우 낮다고 볼 수 있습니다.
+따라서, 지원자의 성적이 2.58이라면 동의대학교 간호학과에 정시 전형으로 합격하기는 매우 어려울 것으로 예상됩니다. 그러나 최종 등록자 표를 확인하거나, 입학사정관들이 별도로 고려할 수 있는 특별한 사항이 있다면 가능성이 있을 수 있습니다.
+결론적으로, 지원자의 성적이 2.58이라면 정시 전형으로 간호학과에 합격하기는 매우 어려울 것으로 보입니다.</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 예비번호 7번에 대한 합격 가능성을 언급하고 있지만, 원본 텍스트에서 제공된 정보와는 다르게 충원 합격자 발표 일정과 등록금 납부에 대한 세부사항을 포함하고 있습니다. 원본 텍스트는 예비번호 7번의 합격 가능성이 낮다고 명시하고 있으나, 생성된 응답은 그에 대한 명확한 언급이 부족합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 내용과 일치하지 않으며, 예비번호 7번의 합격 가능성에 대한 정보가 모호합니다. 원본 텍스트는 예비번호 7번의 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답은 충원 합격자 발표 일정에 대한 정보만을 제공하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 관련된 정보를 제공하지만, 예비번호 7번에 대한 직접적인 답변이 부족합니다. 충원 합격자 발표 일정과 등록금 납부에 대한 정보는 유용하지만, 질문에 대한 직접적인 답변이 아닌 부가적인 정보로 보입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트와의 연결이 약해 일관된 흐름이 부족합니다. 예비번호 7번에 대한 정보가 명확히 연결되지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 사실을 반영하지 못하고 있으며, 예비번호 7번의 합격 가능성에 대한 정보가 부정확합니다. 원본 텍스트의 내용을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 원본 텍스트와의 일관성, 사실성, 관련성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다소 일치하지만, 예비번호 7번에 대한 직접적인 언급이 부족하여 의미 전달이 불완전합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원본 텍스트와의 연결이 약해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>0.5118093885244881</v>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>2024년의 전형 일정과 관련된 정보를 바탕으로 답변 드리겠습니다.
+- **합격자 발표 및 등록금 납부**:
+  - 최초 합격자 발표는 2024년 2월 2일(금)입니다.
+  - 최초 합격자 등록은 2024년 2월 7일(수)부터 13일(화)까지 가능합니다.
+- **충원 합격자 발표 및 등록**:
+  - 충원 합격자는 2차, 3차로 나뉘어 발표되며, 각각의 발표 일정은 다음과 같습니다.
+    - 1차 충원 합격자 발표: 2024년 2월 14일(수)
+    - 1차 충원 합격자 등록: 2024년 2월 14일(수) 9시부터 16시까지
+    - 2차 충원 합격자 발표: 2024년 2월 15일(목)
+    - 2차 충원 합격자 등록: 2024년 2월 15일(목) 9시부터 16시까지
+    - 3차 이후 충원 합격자 발표: 2024년 2월 15일(목) 19시부터 2월 20일(화) 18시까지 (개별 전화 통보)
+- **등록금 납부**:
+  - 최초 합격자는 2024년 2월 7일(수)부터 13일(화)까지 등록금을 납부해야 합니다.
+  - 충원 합격자도 각각의 발표 일정에 따라 지정된 기간 내에 등록금을 납부해야 합니다.
+따라서, 예비번호 7번으로 붙으시려면:
+1. **2월 15일(목)까지** 합격 여부를 확인해야 합니다.
+2. 만약 충원 합격자 발표가 되었다면, 해당 일정에 맞춰 등록금을 납부해야 합니다.
+만약 2월 15일까지 합격자가 발표되지 않거나, 합격이 확실하지 않은 경우에는 다른 대학이나 전형을 검토해보는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답에서 언급된 평균 수능 영어 등급이 3.20으로, 원본 텍스트의 3.25와 다릅니다. 또한, 수능 4개 영역 등급 평균이 4.78이라는 정보는 누락되었습니다. 따라서 일부 사실이 정확하지 않거나 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 일부 정보를 반영하고 있지만, 평균 수능 영어 등급이 다르게 제시되어 일관성이 떨어집니다. 또한, 면접 성적의 중요성을 강조하는 부분은 원본 텍스트와는 다른 관점을 제시하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 지원자의 성적과 합격 가능성에 대한 정보를 제공합니다. 그러나 원본 텍스트의 특정 세부사항(예: 평균 수능 4개 영역 등급)에 대한 언급이 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 떨어지는 부분이 있어 완전한 일관성을 보장하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답에서 제공된 정보 중 일부는 정확하지 않거나 원본 텍스트와 일치하지 않습니다. 특히 평균 수능 영어 등급과 관련된 정보가 다릅니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 사실성, 일관성, 정확성에서 다소 부족한 점이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 일부 세부사항이 다르게 표현되어 있어 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>0.7315712606912155</v>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16정도인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격 몇 번정도 받을 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 게임공학과의 최초합격자 성적을 보면, 해당 모집단위의 평균 수능 영어 등급은 3.20입니다.
+제출된 데이터를 바탕으로 추론해보면:
+- 게임공학과는 다군 수능(일반학생전형)에 속합니다.
+- 이 전형에서는 수능 영어 등급 점수가 반영됩니다.
+- 평균 수능 영어 등급이 3.20이고, 지원하신 분의 수능 영어 등급은 4.16입니다.
+이는 지원자의 수능 영어 성적이 평균보다 약간 높다는 것을 의미합니다. 그러나 게임공학과는 전형요소 중 수능성적만 반영하는 것이 아니라, 면접도 포함되어 있습니다. 따라서 단순히 수능 점수로 합격 확률을 판단하기는 어렵습니다.
+추가적으로:
+1. 게임공학과의 경쟁률은 4.40으로 높습니다.
+2. 동점자 처리 기준에서 면접 성적이 중요한 역할을 합니다.
+따라서, 수능 영어 점수가 평균보다 높다는 것은 좋은 점수지만, 추가 합격 확률을 정확히 예측하기 위해서는:
+1. 게임공학과의 전형요소 비율 (면접 등)을 고려해야 합니다.
+2. 면접 성적도 중요하게 평가받습니다.
+따라서, 수능 영어 점수만으로는 추가 합격 확률을 정확히 예측하기 어렵습니다. 게임공학과의 전형 특성과 지원자의 총괄적인 경쟁력을 고려해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 경영정보학과의 평균 성적과 관련된 정보를 제공하고 있으며, 수능 성적이 3.75인 경우 합격 가능성이 높다는 점을 언급하고 있습니다. 그러나, 수능 최저 기준이 없다는 정보는 원문에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문과 일부 일치하지만, 수능 최저 기준이 없다는 점에서 원문과의 일관성이 떨어집니다. 원문에서는 경영정보학과의 평균 등급에 대한 정보만 제공하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 경영정보학과에 지원하기 위한 주요 요인들을 잘 설명하고 있으며, 원문에서 언급된 정시 성적과 관련된 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인에 대한 설명이 명확하게 이어집니다. 그러나, 수능 최저 기준에 대한 언급이 원문과 일치하지 않아 약간의 일관성이 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 대부분의 정보가 정확하지만, 수능 최저 기준이 없다는 점에서 정확성이 떨어집니다. 원문에서는 그러한 정보가 제공되지 않았습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받고 있습니다. 그러나 일부 부정확성이 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문과 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다. 다만, 수능 최저 기준에 대한 언급이 원문과 다르므로 약간의 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>0.7077822091998497</v>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서 경영정보학과에 지원하려면, 수능 성적과 학생부 교과성적이 중요합니다. 주요 요인들을 살펴보겠습니다:
+1. **수능 성적**:
+   - 평균 3.75는 좋은 점수입니다.
+   - 경영정보학과의 경우, 수능 최저 기준이 없으므로 이 점수로 지원 가능합니다.
+2. **학생부 교과성적**:
+   - 학생부 교과성적이 중요합니다. 3.75 평균은 좋은 성적을 보여줍니다.
+   - 경영정보학과는 국어, 수학, 영어, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 8과목을 반영합니다.
+3. **경쟁률**:
+   - 경영정보학과의 모집인원과 지원 인원에 따라 경쟁률이 결정됩니다.
+   - 평균 3.75는 좋은 성적일 수 있지만, 경쟁률이 높다면 추가적인 요소가 필요할 수 있습니다.
+4. **추천서 및 자기소개서**:
+   - 일부 전형에서는 추천서나 자기소개서 등 추가 자료도 요구될 수 있으므로 준비해두는 것이 좋습니다.
+5. **면접**:
+   - 경영정보학과는 면접을 실시하므로, 면접 준비도 필요합니다.
+결론적으로, 3.75의 평균 성적은 최초등록자로 지원 가능하지만, 학생부 교과성적 등 추가 요인들을 고려해야 합니다. 정확한 가능성 판단을 위해서는 동의대학교 입학처 웹사이트나 전화 상담을 통해 확인하는 것이 좋습니다.
+추가 정보를 원하시면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)로 접속해보세요.</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 경영정보학과의 평균 등급에 대한 정보와 관련된 질문에 대한 답변을 제공하지 않고, 동의대학교의 입학 정책에 대한 일반적인 정보만을 제시하고 있습니다. 이는 원본 텍스트의 사실과 일치하지 않으며, 질문에 대한 직접적인 답변이 아닙니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 경영정보학과의 평균 등급에 대한 정보와 관련된 질문에 대한 답변을 제공하지 않습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 질문에 대한 직접적인 답변을 제공하지 않습니다. 원본 텍스트의 핵심 포인트와 관련이 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르며, 읽기 쉬운 구조를 가지고 있습니다. 그러나 한국어로 작성된 원본 텍스트와는 다른 언어로 작성되어 있어, 한국어 사용자에게는 이해하기 어려울 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 정보를 나열하고 있지만, 원본 텍스트와의 연결이 부족하여 일관된 흐름이 없습니다. 그러나 각 항목은 논리적으로 연결되어 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 질문에 대한 정확한 정보를 제공하지 않습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트와의 관계가 전혀 없습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 질문에 대한 적절한 답변을 제공하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 원본 텍스트와의 관련성이 부족하여 질문에 대한 명확한 답변을 제공하지 않기 때문에 이해하기 어려울 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>0.4370019424943493</v>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看一些具体的信息。根据您提供的信息，我将假设您是在询问关于东义大学（동의대학교）的正取生（정시 성적）情况。
+1. **了解学校的具体招生政策**：首先需要确认的是，东义大学对于各个专业的正取分数线是多少。通常，这些信息会在学校的官方网站上公布。
+2. **参考以往的数据**：您提到的“4.2”可能是指某个分数或排名等级。如果这个数字是基于过去几年该专业在正取生中的平均成绩或者排名，那么我们可以进行比较。
+3. **具体专业的分数线**：我们需要知道东义大学经管信息学部（경영정보학과）的具体正取分数线是多少。通常这些信息会在学校的招生简章或官方网站上公布。
+4. **综合考虑其他因素**：除了分数之外，学校还会考虑学生的综合素质、面试表现等因素。因此，即使您的成绩没有达到平均线，也不完全排除被录取的可能性。
+为了给出更准确的答案，请提供以下具体信息：
+- 东义大学经管信息学部2024年的正取分数线是多少？
+- 您的具体分数和排名等级是什么？
+如果这些信息无法获取，建议直接访问东义大学的官方网站或联系招生办公室以获得最准确的信息。</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 관련이 없으며, 제공된 정보와 상충하는 내용을 포함하고 있습니다. 원본 텍스트는 경영정보학과의 평균 등급과 합격 가능성에 대한 정보를 제공하는 반면, 생성된 응답은 다른 주제에 대한 분석을 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 전혀 없으며, 서로 다른 정보를 제공하고 있습니다. 원본 텍스트의 내용과 상충하는 정보가 포함되어 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 질문에 대한 직접적인 답변을 제공하지 않습니다. 원본 텍스트의 핵심 내용과는 전혀 다른 방향으로 나아가고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으나, 내용의 관련성 부족으로 인해 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 여러 가지 정보를 포함하고 있지만, 원본 텍스트와의 연결이 부족하여 논리적인 흐름이 약합니다. 주제가 일관되지 않아 응답의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보가 포함되어 있습니다. 원본 텍스트의 내용과는 상반된 주장을 하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 관계가 전혀 없습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 주제와 관련이 없는 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 원본 텍스트와의 관련성이 부족하여 전체적인 이해가 어렵습니다. 
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>0.4845648733650992</v>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看以下几个方面的信息：
+1. 经营信息学部2024年的招生计划。
+2. 经营信息学部的录取分数线（尤其是对于一般学生类型）。
+3. 您的具体成绩在该年份的排名情况。
+但是根据您提供的数据，我们可以做一些初步分析。从“多军”（Da-jun）的普通学生类型招生中可以看到：
+- 经营信息学部的招生人数为9人。
+- 总共有152名考生申请了这个专业。
+- 竞争比是16.89:1。
+根据您提供的成绩，您的综合科目标准转换分数（包括加权）为430.32。这看起来是一个相当高的分数，但我们需要知道具体的录取分数线才能确定是否能够被录取。
+通常情况下，如果您的成绩高于或接近该专业的平均录取分数线，那么您有很大的机会被录取。但是，由于每个年份的具体情况可能会有所不同（例如，某些年份可能有特别优秀的考生），因此最好查看当年的实际录取分数线来做出准确判断。
+建议：
+1. 查看东国大学2024年的最终录取分数线。
+2. 如果有可能的话，直接联系招生办公室获取更详细的信息和确认。
+3. 准备好所有申请材料以应对可能的面试或其他评估环节。</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 바이오응용공학부의 평균 성적과 경쟁률에 대한 정보를 제공하지만, 3.33이라는 성적이 최초등록자로 선발될 가능성이 낮다고 언급하고 있습니다. 이는 원본 텍스트의 "합격 가능성이 높습니다"라는 내용과 상충합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관성이 부족합니다. 원본 텍스트는 3.33의 성적이 합격 가능성이 높다고 명시하고 있지만, 생성된 응답은 그와 반대되는 주장을 하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 바이오응용공학부의 입학 전형과 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용인 3.33 성적의 합격 가능성에 대한 직접적인 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결성이 떨어져 다소 단절된 느낌을 줄 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 3.33 성적에 대한 해석이 원본 텍스트와 다릅니다. 원본 텍스트는 합격 가능성을 높게 평가하고 있으나, 생성된 응답은 낮게 평가하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원본 텍스트와의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 의미와는 다소 다르게 해석되고 있습니다. 특히 합격 가능성에 대한 해석이 상반됩니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 일부 내용이 원본 텍스트와의 연결이 부족해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>0.6796111460726517</v>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오응용공학부의 경우, 전형요소 반영비율을 살펴보면 수능 위주 전형입니다. 따라서 성적만으로 판단하면 다음과 같은 점들을 고려해야 합니다:
+1. **수능 최저기준**: 2024학년도 동의대학교는 수능 위주의 전형이므로, 수능 최저 기준을 충족하는 것이 중요합니다.
+2. **성적 평균**: 바이오응용공학부의 경우, 전반적으로 높은 경쟁률과 낮은 모집인원을 가진 학과로 알려져 있습니다. 따라서 3.33 정도의 성적이 상대적으로 낮은 수준입니다.
+3. **경쟁률**: 바이오응용공학부는 경쟁률이 높기 때문에, 3.33이라는 성적만으로 최초등록자로 선발될 확률은 매우 낮습니다.
+4. **추가 요소**: 학생부교과성적, 출결 등 추가 평가 요소를 고려해야 하지만, 주요 결정 요인은 수능 점수입니다.
+따라서 3.33 정도의 성적만으로 바이오응용공학부 최초등록자로 선발될 가능성은 매우 낮습니다. 더 높은 성적이 필요하며, 추가적인 지원 자질이나 학생부 성적 등을 갖추는 것이 중요합니다.
+만약에 3.33 정도의 성적을 가지고 있다면, 다른 전형명이나 학과를 고려해 보시는 것이 좋습니다. 예를 들어, 수능 위주 전형인 다른 학과나 실기/실적 위주의 전형 등을 고려해 보시는 것이 유리할 것입니다.
+추가적으로 지원자로서의 자질을 갖추고, 학생부 성적 등 추가 평가 요소를 준비하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과의 평균 등급과 관련된 정보를 포함하고 있으며, 현재 성적(4.4)이 평균 등급보다 낮다는 점을 언급하고 있습니다. 그러나, 수능 최저기준이나 전형 요소에 대한 구체적인 정보는 제공되지 않아 일부 정보가 부족합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 잘 반영하고 있으며, 방사선학과의 경쟁률과 성적 요구 사항에 대한 일관된 정보를 제공합니다. 다만, 일부 추가적인 정보가 포함되어 있어 원본 텍스트와의 일관성에서 약간의 차이가 있을 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 방사선학과에 지원하기 위한 여러 요소를 다루고 있으며, 원본 텍스트의 주제와 직접적으로 관련이 있습니다. 따라서 매우 높은 관련성을 보입니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 전반적으로 유창하게 작성되었습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 요소가 잘 연결되어 있어 일관된 구조를 유지하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과의 성적 요구 사항과 관련된 정보를 정확하게 전달하고 있지만, 수능 최저기준에 대한 구체적인 수치가 부족하여 완전한 정확성에는 다소 미치지 못합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일부 정보의 부족으로 인해 완벽한 점수는 아닙니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>0.5367779201888829</v>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 방사선학과에 지원하시려면, 몇 가지 요소를 고려해야 합니다:
+1. **성적**: 방사선학과는 일반적으로 높은 성적이 요구됩니다. 현재 제시된 성적(등급 4.4)으로는 경쟁률이 매우 높을 가능성이 큽니다.
+2. **모집군**: 방사선학과는 보통 가군이나 나군에 포함되며, 수능 위주 전형일 가능성이 높습니다. 따라서 성적만으로는 충분하지 않을 수 있습니다.
+3. **수능 최저기준**: 동의대학교에서는 수능 최저기준을 요구합니다. 방사선학과의 경우, 국어, 수학, 영어 등 주요 과목에서 높은 점수가 필요할 것입니다.
+4. **전형 요소**: 학생부교과성적, 출결, 면접 등의 전형 요소도 고려됩니다. 따라서 성적이 좋은 만큼 학생부와 면접 준비가 중요합니다.
+5. **경쟁률**: 방사선학과는 인기 학과로 경쟁률이 매우 높습니다. 현재의 성적만으로는 충분하지 않을 가능성이 큽니다.
+추천 사항:
+- **성적 향상**: 수능 공부를 더욱 철저히 하여 최대한 높은 점수를 받으세요.
+- **학생부 준비**: 학생부에서 좋은 성적을 반영하고, 활동과 경험을 잘 기재하세요.
+- **면접 준비**: 면접에서도 방사선학과에 대한 열정과 적합성을 잘 표현할 수 있도록 준비하세요.
+결론적으로 현재의 성적만으로는 낮은 확률로 합격할 가능성이 있습니다. 성적이 더 높아지거나, 다른 전형(예: 실기/실적 위주)을 고려해보시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과의 평균 성적과 관련된 정보를 잘못 해석하고 있습니다. 원본 텍스트에서는 2.66이 평균보다 높은 성적이라고 언급하고 있지만, 생성된 응답에서는 이를 낮은 점수로 잘못 설명하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본에서는 2.66이 평균보다 높다고 명시했으나, 생성된 응답에서는 이를 위험한 성적으로 간주하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과의 성적에 대한 분석과 조치를 제안하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 정보를 잘못 해석하여 관련성이 다소 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 성적 분석과 추천 조치가 잘 연결되지만, 원본의 정보와 충돌합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 2.66이 평균보다 높은 성적이라는 사실을 무시하고 잘못된 해석을 하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락을 잘못 이해하고 있어 일부 내용이 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>0.5830903574838654</v>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 방사선학과 정시 모집에서 2.66이라는 성적은 상대적으로 낮은 점수입니다.
+- **정시모집군**: &lt;나&gt;군 (일반학생전형)
+- **성적 기준**: 2023년 동의대학교 방사선학과 정시 모집에서 국어+수학+탐구(2개)의 표준점수 합은 평균 4.18, 표준편차는 0.76입니다.
+- **성적 분석**: 
+  - 평균 점수 4.18보다 낮으므로, 이 성적이 조금 위험할 수 있습니다.
+  - 표준편차가 0.76이므로, 2.66은 약 3.5표준편차 아래에 위치합니다.
+**추천 조치:**
+- **보충학습**: 강화된 학습을 통해 성적을 높이는 것이 좋습니다.
+- **다양한 전형 시도**: 다른 전형(학생부종합, 실기/실적 등)으로 지원해 보는 것도 고려해볼 만합니다.
+- **면접 준비**: 면접에서도 좋은 인상을 주는 것이 중요하므로 미리 준비하는 것이 좋습니다.
+결론적으로 2.66은 위험한 성적이지만, 적극적인 대비와 노력이 필요합니다.</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 3.66이라는 성적이 낮다고 언급하고 있지만, 원본 텍스트에서는 이 성적이 평균보다 높은 성적이라고 명시하고 있습니다. 따라서 사실관계에 대한 오류가 존재합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상반된 정보를 제공합니다. 원본에서는 3.66이 평균보다 높은 성적이라고 했으나, 생성된 응답에서는 이를 낮은 점수로 간주하고 있습니다. 이로 인해 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 합격 가능성을 판단하기 위한 여러 요소를 제시하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 정보인 평균 성적에 대한 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 여러 요소를 나열하며 논리적으로 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상반된 내용을 포함하고 있어 정확성이 낮습니다. 특히 성적에 대한 해석이 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 요소에서 긍정적인 점이 있지만, 사실관계와 일관성에서 큰 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 맥락과 다소 어긋나는 내용을 포함하고 있어 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>0.6618568624385583</v>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>3.66이라는 성적은 일반적으로 경쟁이 치열한 경찰행정학과의 농어촌 전형에서는 낮은 점수일 것입니다. 그러나 정확한 합격 가능성 판단을 위해서는 다음과 같은 요소들을 고려해야 합니다:
+1. 모집인원: 해당 전공의 정원이 얼마나 되는지 확인해야 합니다.
+2. 지원자 수: 경쟁률이 어느 정도인지 파악해야 합니다.
+3. 평균 성적: 이전년도의 합격자의 평균 성적이 어느 정도였는지를 알아보세요.
+4. 전형요소: 농어촌 학생 특성화를 고려한 요소가 있는지 확인하세요.
+5. 추가 지원 자료: 서류평가, 면접 등 다른 평가 항목에서 좋은 점수를 받았다면 이점이 있을 수 있습니다.
+6. 지역적 배려: 농어촌 학생 특성화를 고려한 선발 요인도 중요합니다.
+현재 정보만으로는 정확한 판단을 내리기 어렵습니다. 하지만 3.66이라는 성적이 낮은 편이므로, 경쟁률이 높고 평균 성적이 높다면 합격 가능성은 낮을 것으로 예상됩니다.
+추가 정보를 제공해주시면 좀 더 구체적인 분석이 가능할 것 같습니다. 필요하다면 대학 입학처에 직접 문의하시는 것도 좋은 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 예비 25번의 합격 가능성에 대한 일반적인 정보를 제공하지만, 원문에서 언급된 특정 학과에 대한 정보는 포함되어 있지 않다. 따라서 일부 사실이 누락되었다고 볼 수 있다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 예비 25번의 합격 가능성에 대한 일반적인 설명을 제공하지만, 원문에서 제시된 특정 학과 목록과는 일치하지 않는다. 이로 인해 일관성이 떨어진다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 예비 25번의 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있으나, 원문에서 제시된 특정 학과에 대한 정보가 부족하여 완전한 관련성을 갖추지 못했다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있다. 따라서 유창성 점수는 높게 평가할 수 있다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있다. 그러나 원문과의 연결성이 부족하여 완전한 일관성을 갖추지 못했다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 예비 25번의 합격 가능성에 대한 일반적인 정보를 제공하지만, 원문에서 제공된 특정 학과에 대한 정보가 누락되어 있어 정확성 점수가 낮아진다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 유창성과 관련성에서 높은 점수를 받지만, 사실성과 일관성에서 부족함이 있어 전체적인 품질 점수는 중간 정도로 평가된다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 질문의 맥락에 적절하게 의미를 전달하고 있으나, 원문에서 제공된 특정 정보가 부족하여 완전한 적절성을 갖추지 못했다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어 이해 가능성이 높다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>0.4355002366340369</v>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>25위라는 순위가 전체 지원자 중에서 어느 정도 위치에 있는지, 그리고 해당 모집단위의 모집인원과 지원 인원 비율 등을 고려해야 정확한 가능성 평가를 할 수 있습니다. 하지만 일반적으로 예비후보자의 경우 최종 합격 확률이 낮습니다.
+다음은 몇 가지 고려할 사항입니다:
+1. **모집인원과 지원 인원**: 모집인원이 적고 지원 인원이 많다면, 예비후보자들의 합격 가능성은 더 낮아질 수 있습니다.
+2. **경쟁률**: 전체 경쟁률을 확인해 보세요. 예를 들어 10명 중 1명만 선발하는 경우, 예비후보자의 경우 최종 합격 확률이 매우 낮습니다.
+3. **성적과 평가 요소**: 수능 성적, 면접 성적, 서류 평가 등 각 전형요소의 점수를 확인해 보세요. 자신의 성적이 모집인원을 초과하는 지원자들보다 높다면, 최종 합격 가능성은 조금 더 높아질 수 있습니다.
+4. **결정 요인**: 일부 대학에서는 예비후보자 중에서 추가로 선발할 수 있는 경우가 있어, 이 점도 고려해 보세요.
+5. **합격자 발표 일정**: 최종 합격자를 발표하는 시점까지 계속 관심을 가지고 확인하세요. 만약 모집인원이 충원되지 않으면 예비후보자들 중에서 추가로 선발될 수 있습니다.
+결론적으로, 예비 25위라는 순위만으로는 확실한 답변을 내리기 어렵습니다. 상세한 정보를 수집하고 분석하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 동의대학교 법경찰행정학부에 대한 정보가 없다고 언급하고 있지만, 원본 텍스트에서 법경찰행정학부는 존재하지 않는다고 명확히 설명하고 있습니다. 또한, 경찰행정학과에 대한 평균 성적 정보는 제공되었으나, 생성된 응답은 이를 무시하고 일반적인 예측 방법에 대한 설명만 하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 내용을 일관되게 반영하지 않고, 법경찰행정학부에 대한 정보가 없다는 점에서 원본과 상충합니다. 원본 텍스트는 경찰행정학과의 성적 정보를 제공하고 있지만, 생성된 응답은 이를 무시하고 일반적인 정보만을 제공합니다. 따라서 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 동의대학교의 정시 모집에 대한 일반적인 정보와 예측 방법을 제공하고 있지만, 원본 텍스트의 구체적인 내용과는 관련성이 떨어집니다. 원본 텍스트에서 제공하는 구체적인 성적 정보와 비교할 때, 생성된 응답은 다소 관련성이 부족합니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 4  
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 따라서 일관성 점수는 높습니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않고, 일반적인 예측 방법에 대한 설명만을 제공하고 있습니다. 이는 원본 텍스트의 정확한 정보를 왜곡하는 결과를 초래하므로 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 원본 텍스트의 내용을 잘 반영하지 못하고 있습니다. 따라서 다차원 품질 점수는 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 내용을 다루고 있지만, 구체적인 사실을 반영하지 않기 때문에 의미적으로 적절하다고 보기 어렵습니다. 따라서 의미 적합성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 명확하게 작성되어 있어 이해하기 쉽습니다. 따라서 이해 가능성 점수는 높습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>0.6928235748537216</v>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 법경찰행정학부의 정시모집에 대한 정보는 제공된 자료에서 확인할 수 없습니다. 하지만 일반적으로 대학별 학과의 정시 모집 경쟁률과 평균 성적을 예측하는 방법은 다음과 같습니다:
+1. **최근 몇 년간의 입학성적 분석**: 동의대학교 법경찰행정학부의 최근 2-3년간의 최저합격 점수를 확인합니다.
+2. **모집인원과 지원자 수**: 모집인원이 많고 지원자가 적으면 낮은 점수가 합격할 가능성이 높아지지만, 반대로 모집인원이 적고 지원자가 많은 경우 높은 점수를 받는 것이 필요합니다.
+3. **경쟁률**: 경쟁률을 고려하여 안정적인 합격을 위해서는 평균 성적보다 약간 더 높은 점수를 받는 것이 좋습니다.
+4. **성적 분포**: 수능 성적이 잘 분포되어 있다면, 평균 성적에 가까운 점수가 안정적으로 합격할 가능성이 있습니다.
+5. **추천서나 면접 등 추가요소**: 일부 학과에서는 추천서나 면접 등의 추가 요소가 중요하므로 이를 고려해야 합니다.
+2024년 동의대학교 법경찰행정학부의 정시 모집에 대한 자세한 정보는 동의대학교 입학처 웹사이트 또는 전화로 문의하시는 것이 가장 정확할 것입니다. 또한, 최근 몇 년간의 입학성적을 확인하여 더 구체적인 예측을 할 수 있습니다.
+추가적으로, 대입 컨설팅 서비스나 학원에서 제공하는 정보도 참고할 만합니다.</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 아동학과의 평균 영어 등급과 수능 4개 영역 등급 평균에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 2024년도 모집단위 변경 사항에 대한 정확한 반영이 부족하다. 또한, 수능 점수와 관련된 정보가 원본과 일치하지 않으며, 일부 수치가 잘못 기재되어 있다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 반영하고 있으나, 아동학과와 보육가정상담학과의 관계에 대한 설명이 모호하고, 원본의 주요 내용과 일치하지 않는 부분이 있다. 특히, 수능 점수와 관련된 정보가 일관되지 않다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과에 대한 정보를 제공하며, 지원자의 성적에 대한 분석을 포함하고 있어 관련성이 높다. 그러나 원본 텍스트의 주요 포인트인 아동학과의 평균 등급에 대한 정보가 충분히 강조되지 않았다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있다. 그러나 원본 텍스트와의 연결성이 약간 부족하여 완전한 일관성을 제공하지는 않는다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 수치와 사실관계가 일치하지 않으며, 잘못된 정보가 포함되어 있다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어진다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 대체로 잘 전달하고 있으나, 일부 정보가 부정확하여 의미 전달에 약간의 혼란을 줄 수 있다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>0.5603080425537393</v>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 보육가정상담학과에 대한 정보를 바탕으로 답변 드리겠습니다.
+보육가정상담학과는 아동학과로 분류되며, 해당 학과의 지원자는 주로 수능(일반학생전형)을 통해 모집됩니다. 2024년도 보육가정상담학과의 최초합격자 정보를 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 317.60, 표준 편차 9.47
+- 영어 등급: 평균 5.33
+이 정보를 바탕으로 다음과 같은 결론을 내릴 수 있습니다:
+1. **영어 등급**: 지원자의 영어 등급 5.33은 평균치와 유사합니다. 이는 합격 가능성을 높입니다.
+2. **수능 점수**: 평균적인 수능 점수가 317.60으로, 지원자의 표준 변환 점수 314.58(평균 317.60에서 표준 편차 9.47을 뺀 값)은 약간 낮습니다. 하지만 수능 최저 기준이 없으므로 이만으로는 합격 가능성은 있습니다.
+3. **경쟁률**: 경쟁률이 매우 높아 보입니다 (4.80). 따라서, 다른 지원자들과의 비교에서 우위를 점해야 합니다.
+결론적으로, 영어 등급이 평균치와 유사하고 수능 점수가 약간 낮지만 최저 기준을 충족하지 않는다는 점을 고려할 때, 합격 가능성은 있으나 경쟁력이 높지 않을 가능성이 있습니다. 지원자의 전반적인 성적과 서류 평가 등 다른 요소들이 중요하게 작용할 수 있습니다.
+따라서, 최종 결정을 내리기 위해서는 동의대학교 입학관리팀에 직접 문의하거나, 추가 정보를 얻어보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교의 충원 합격자 발표에 대한 구체적인 정보를 제공하지 않고, 예비 번호 12번에 대한 합격 가능성에 대한 명확한 언급이 부족합니다. 또한, 원문에서 언급된 전화 통보 시간과 관련된 정보가 잘못 전달되었습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 일관성이 부족합니다. 원문에서는 예비 번호 12번에 대한 합격 가능성을 언급하고 있지만, 생성된 응답은 그 가능성에 대한 명확한 설명이 부족하고, 다른 요소들에 대한 언급이 많아 혼란을 초래합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원문과 관련된 정보를 제공하지만, 주제에서 벗어난 부분이 많아 전반적으로 관련성이 떨어집니다. 예비 번호에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 요소를 나열하고 있지만, 논리적인 흐름이 부족하여 일관성이 떨어집니다. 각 요소 간의 연결이 명확하지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제공된 정보와 일치하지 않는 부분이 많습니다. 특히, 합격 가능성에 대한 정보가 부정확하게 전달되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 의미 전달이 명확하지 않아 적절성에서 다소 부족합니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 이해할 수 있지만, 일부 문장이 복잡하여 명확하게 이해하기 어려운 부분이 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>0.4736537661630114</v>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>从您提供的信息来看，关于东国大学保育·家庭咨询学专业补充合格者第3次的情况，并没有直接说明预审12号的录取可能性。不过可以参考以下几点来评估：
+1. **补充合格通知时间**：补充合格者的第3次通知是在2024年2月15日（星期四）9:00进行的，这意味着您已经收到了补充合格的通知。
+2. **预审排名**：您提到自己是预审12号。通常来说，在补充合格阶段，学校会根据预审成绩和其他条件来决定最终录取名单。预审排名越靠前，被录取的可能性越大。
+3. **其他因素**：
+   - 个人综合评价（如面试表现、推荐信等）。
+   - 学校的具体招生政策和名额分配情况。
+   - 其他候选人的竞争程度。
+4. **建议措施**：
+   - 尽快完成补充合格阶段的注册流程，确保在规定时间内缴纳学费。
+   - 保持与学校联系，了解后续可能的通知或要求。
+   - 准备好所有必要的文件和材料，以应对任何额外的要求。
+综上所述，虽然预审12号的位置相对靠后，但仍然有一定的录取可能性。建议您尽快完成补充合格阶段的注册，并密切关注学校的进一步通知。</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 4.75라는 수능 점수가 높은 점수라고 언급하고 있지만, 유아교육학과의 평균 수능 점수(4.18)와 비교했을 때, 4.75로 지원하기 어려울 것이라는 원본 텍스트의 결론을 명확히 반영하지 못하고 있습니다. 따라서 일부 사실이 누락되거나 왜곡된 것으로 평가됩니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 유아교육학과의 입시 전형 요소에 대해 설명하고 있지만, 원본 텍스트에서 제시된 4.75 점수로 지원하기 어려운 이유와 일치하지 않는 부분이 있습니다. 즉, 수능 점수의 중요성을 강조하면서도 원본의 결론과는 상충하는 내용을 포함하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 유아교육학과에 대한 정보와 수능 점수의 중요성을 다루고 있어 원본 텍스트와 관련이 있습니다. 그러나 원본의 핵심 내용인 4.75 점수로 지원 가능 여부에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트의 결론과의 연결이 약해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 수능 점수의 중요성을 강조하지만, 유아교육학과에 지원하기 어려운 이유를 명확히 반영하지 못하고 있습니다. 따라서 정확성에서 일부 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 적절한 정보를 제공하지만, 원본 텍스트의 핵심 내용을 충분히 반영하지 못하고 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 유아교육학과와 관련된 내용을 적절하게 다루고 있으며, 의미적으로도 적절합니다. 그러나 원본의 결론과는 다소 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 설명이 포함되어 있습니다. 다만, 원본 텍스트와의 연결이 약해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>0.6904170373829202</v>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>4.75라는 수능 점수는 상당히 높은 점수입니다. 하지만 유아교육학과의 입시 경쟁률과 모집인원, 전형요소 등을 고려해야 합니다.
+1. **유아교육학과의 특징**:
+   - 일반적으로 유아교육학과는 교직 관련 전공이므로 수능 성적보다 학교생활기록부와 면접 등 서류평가가 중요합니다.
+   - 일부 대학에서는 수능 점수를 반영하지 않거나, 매우 낮은 비율로만 반영할 수 있습니다.
+2. **전형요소**:
+   - 유아교육학과는 주로 학교생활기록부와 면접을 중점적으로 평가합니다.
+   - 수능 성적은 보조적인 역할을 합니다.
+3. **수능 점수의 영향**:
+   - 4.75라는 높은 수능 점수는 서류평가에서 긍정적인 요인으로 작용할 수 있습니다.
+   - 하지만 학교생활기록부와 면접 성적이 중요하기 때문에, 이 두 가지 평가에서도 좋은 결과를 얻어야 합니다.
+4. **결론**:
+   - 4.75라는 높은 수능 점수는 유리한 요인일 것입니다.
+   - 하지만 유아교육학과의 입시에서는 학교생활기록부와 면접 성적이 중요하므로, 이 부분에서도 좋은 평가를 받는 것이 중요합니다.
+따라서 4.75라는 수능 점수만으로는 확실한 보장은 어렵지만, 다른 평가 요소에서 좋은 결과를 얻으면 충분히 가능할 것입니다.</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과의 합격 가능성에 대한 정보를 제공하며, 환산등급 4.16이 좋은 성적이라는 점을 언급하고 있습니다. 그러나 수능최저기준이 없다는 정보는 명확히 확인되지 않았고, 모집인원 및 지원자 수에 대한 구체적인 데이터가 부족합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 잘 반영하고 있으며, 합격 가능성에 대한 논의가 일관되게 이어집니다. 다만, 수능최저기준에 대한 언급이 원본 텍스트에 명시되어 있지 않아 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 합격 가능성에 대한 주요 고려사항을 제시하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다. 문장 구조와 표현이 자연스럽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 정확한 정보를 제공하지만, 수능최저기준에 대한 정보가 원본 텍스트에서 확인되지 않아 약간의 정확성 부족이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있지만, 일부 정보의 정확성에 대한 의문이 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>0.5236123912857336</v>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 보육가정상담학과(아동학과)에 지원하실 경우, 환산등급 4.16은 좋은 성적입니다만, 최종 합격 여부는 여러 요소에 따라 결정됩니다.
+### 주요 고려사항:
+1. **수능최저기준**: 보육가정상담학과(아동학과)의 경우 수능최저기준이 없습니다.
+2. **모집인원 및 지원자 수**: 해당 학과의 모집인원과 지원자의 수에 따라 달라질 수 있습니다.
+3. **학생부 성적**: 환산등급 외에도 학생부 성적이 중요한 평가 요소입니다. 특히 공동체역량, 학업역량, 전공적합성 등이 중요합니다.
+4. **면접 및 실기(필요시)**: 일부 학과에서는 면접이나 실기가 포함될 수 있으므로 준비가 필요합니다.
+### 추천 조치:
+1. **학생부 성적 확인**: 학생부 성적이 높은지 확인하고, 필요한 부분을 강화하세요.
+2. **면접 및 실기 준비**: 면접이나 실기가 요구되는 경우, 관련 내용을 미리 준비해두세요.
+3. **모집인원과 지원자 수 파악**: 해당 학과의 모집인원과 지원자의 수를 확인하여 경쟁률을 예측하세요.
+### 결론:
+환산등급 4.16은 좋은 성적입니다만, 최종 합격 여부는 여러 요소에 따라 결정됩니다. 철저한 준비와 학생부 성적의 우수성을 보여주면 더 높은 확률로 합격할 수 있습니다.
+추가 정보나 자세한 조언이 필요하시다면, 동의대학교 입학처 웹사이트를 참조하거나 전화 문의를 해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 없다는 사실을 정확하게 반영하고 있습니다. 그러나 일반학생전형의 평균 등급에 대한 정보는 출처에 명시되어 있지 않으므로, 이 부분은 다소 추정에 기반한 내용입니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 출처와 일관되며, 정시 지원이 불가능하다는 점을 명확히 하고 있습니다. 그러나 일반학생전형에 대한 추가 정보는 출처에 포함되어 있지 않으므로, 이 부분에서 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 출처의 질문에 직접적으로 관련된 내용을 다루고 있으며, 정시 지원 불가능성과 일반학생전형에 대한 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 정보가 추가되어 있어 약간의 흐름이 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 정시 지원 불가능성에 대한 정확한 정보를 제공하지만, 일반학생전형의 평균 등급에 대한 정보는 출처에 명시되어 있지 않아 정확성에서 약간의 의문이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 정보의 출처가 불분명하여 약간의 감점이 있었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 출처의 의미와 맥락에 적절하게 부합하며, 관련된 정보를 제공합니다. 그러나 일부 추가 정보는 맥락에서 벗어날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>0.5444794349301689</v>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프WARE융합학과는 정시 모집이 아닌 일반학생전형으로만 모집됩니다. 따라서 정시로 지원하는 것은 불가능합니다.
+일반학생전형에서는 수능 성적을 기준으로 합격자를 선발하며, 평균 등급은 다음과 같습니다:
+- 국어: 4등급 이상
+- 수학(미적분/기하): 3등급 이상 
+- 영어: 4등급 이상
+- 탐구 과목 2개: 총점 100점 이상
+이러한 기준을 충족하는 평균 등급은 대략 4등급 정도가 필요할 것으로 예상됩니다. 하지만 최종 합격 가능성을 높이기 위해서는 수능 성적 외에도 지원자의 전반적인 경쟁력을 고려하여 더 높은 점수를 받는 것이 좋습니다.
+따라서 정시로 소프WARE융합학과에 들어갈 수는 없지만, 일반학생전형에서 4등급 이상의 평균 등급을 받아야 합격 가능성이 높아집니다.</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 소프트웨어융합학과의 평가 방식에 대한 정보를 제공하고 있으며, 면접 점수와 서류 평가의 중요성을 언급하고 있습니다. 그러나 일부 세부 사항은 원본 텍스트에 명시된 내용과 다를 수 있습니다. 예를 들어, 서류 평가의 비중에 대한 언급은 원본에 명시되어 있지 않으므로, 이로 인해 점수를 4로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용을 바탕으로 하여 추가적인 정보를 제공하고 있지만, 일부 내용은 원본과 일치하지 않거나 모호한 부분이 있습니다. 예를 들어, 서류 평가의 중요성에 대한 설명이 원본의 내용과 다소 상충할 수 있습니다. 따라서 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 내용을 다루고 있으며, 면접 점수와 서류 준비에 대한 정보를 제공하고 있습니다. 따라서 관련성 점수는 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길고 복잡하여 약간의 가독성 저하가 있을 수 있습니다. 따라서 유창성 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 부분에서 논리적 흐름이 약간 끊길 수 있어 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 정보를 바탕으로 하여 정확한 내용을 전달하고 있지만, 일부 세부 사항에서 정확성이 떨어질 수 있습니다. 따라서 정확성 점수는 4로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 전반적으로 잘 수행하고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있어 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있으며, 적절한 내용을 전달하고 있습니다. 그러나 일부 표현이 다소 모호할 수 있어 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 문장이 복잡하여 이해하는 데 약간의 어려움이 있을 수 있습니다. 따라서 이해 가능성 점수는 4로 평가합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>0.5601961971723032</v>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>1. **면접 점수와 세특 내용의 중요도**:
+   - 일반적으로, 소프트웨어 융합과 같은 조기 취업형 계약학과 전형에서는 면접 점수와 서류 평가(세부 특성 내용) 모두 중요한 역할을 합니다. 하지만 정확한 비중은 모집단위에 따라 다를 수 있습니다.
+   - 대부분의 경우, 서류 평가는 면접 점수보다는 덜 중요하지만, 합격 결정에 큰 영향을 미칠 수 있는 요소입니다.
+2. **서류 준비**:
+   - **고교 졸업(예정)자**: 고교 학교생활기록부 1부를 제출해야 합니다. 학생부 온라인 제공 동의자는 이 서류를 제출할 필요가 없습니다.
+   - **검정고시 출신자**: 검정고시 합격증서 사본, 검정고시 성적증명서 1부, 그리고 선택적으로 학교생활기록부 대체 서류를 제출해야 합니다.
+   - **외국 고교 졸업(예정)자**: 공증받은 외국고교 졸업(예정)증명서, 공증받은 외국고교 성적증명서 1부, 그리고 선택적으로 학교생활기록부 대체 서류를 제출해야 합니다. 이때, 원본과 공증된 한국어 번역본을 함께 제출해야 하며, 아포스티유 확인서 또는 영사확인서가 필요합니다.
+3. **추천 사항**:
+   - **세특 내용의 준비**: 학교생활기록부에 기재된 내용을 뒷받침할 수 있는 구체적인 증거와 경험을 준비해야 합니다. 과장되거나 호의적으로 기재한 내용보다는 실제 경험과 노력에 근거한 내용이 더 긍정적 평가를 받을 가능성이 큽니다.
+   - **서류 제출 확인**: 서류제출 여부는 홈페이지에서 확인할 수 있으므로, 반드시 본인의 서류제출 여부를 확인해야 합니다. 미제출 또는 미확인으로 인한 불이익은 전적으로 지원자 본인에게 있습니다.
+따라서, 소프트웨어 융합과 같은 조기 취업형 계약학과에서는 면접 점수와 함께 세특 내용을 중요하게 평가하므로, 서류 준비는 철저히 해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 경쟁률과 지원 인원에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 최초합격자의 평균 등급(4.12)과 비교하여 4.08의 성적이 다소 높은 수준이라는 점을 명확히 반영하지 못하고 있습니다. 또한, 경쟁률을 4.08로 잘못 해석하고 있습니다. 
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 경쟁률에 대한 해석에서 불일치가 발생합니다. 원본 텍스트는 4.08의 성적이 최초합격 가능성이 있지만 확실하지 않다고 언급하고 있으나, 생성된 응답은 합격이 어렵다고 단정짓고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 경쟁률과 지원 인원에 대한 정보를 제공하여 관련성을 유지하고 있지만, 원본 텍스트의 핵심 내용인 성적과 최초합격 가능성에 대한 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 체계적으로 제시되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 떨어지는 부분이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 경쟁률에 대한 잘못된 해석과 원본 텍스트의 핵심 내용을 충분히 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 대체로 잘 전달하고 있으나, 일부 정보의 해석에서 차이가 발생합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>0.7202287685431502</v>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프트웨어공학부의 경우, 수능 최초합격자의 경쟁률과 지원 인원 등을 고려해보겠습니다.
+- **소프트웨어공학부**:
+  - 모집인원: 36명
+  - 지원인원: 146명
+  - 경쟁률: 4.08
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**:
+  평균: 330.11 / 표준 편차: 9.08
+- **영어 등급**:
+  평균: 3.30 / 표준 편차: 0.82
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**:
+  평균: 450.71 / 표준 편차: 10.11
+이러한 정보를 바탕으로, 정시 성적이 4.08이라는 점은 경쟁률이 높은 소프트웨어공학부에 합격하기에는 다소 어려울 것으로 보입니다.
+- **경쟁률**: 4.08는 상당히 높은 수준이며, 이는 많은 지원자가 좋은 성적을 얻었다는 것을 의미합니다.
+- **평균 표준 변환 점수 합**: 330.11과 450.71이라는 평균 점수가 보여주듯이, 이 모집단위에서는 높은 점수를 요구하고 있습니다.
+따라서 정시 성적이 4.08인 경우, 소프트웨어공학부 최초합격자로 합격하기는 어렵다고 판단됩니다. 그러나 수능 성적 외에도 면접 등 다른 평가 요소들이 포함되므로, 전반적인 경쟁력을 고려해보시는 것이 좋습니다.
+만약에 확실한 결과를 원하신다면, 동의대학교 입학관리팀에 직접 문의하거나, 제공된 표와 데이터를 더 자세히 분석하는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보가 포함되어 있지 않다는 원문 내용을 무시하고, 잘못된 전형요소 반영 비율과 가산점 정보를 제공하고 있습니다. 이는 원문과 상충되는 정보로, 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있으며, 원문에서 언급된 내용과 상충하는 점이 많습니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 소프트웨어융합학과에 대한 정보를 제공하고 있지만, 원문에서 요구하는 구체적인 합격 등급 정보와는 관련이 적습니다. 원문에서 요청한 정보와는 다소 동떨어진 내용입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 비교적 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장은 불필요하게 복잡하게 표현되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족합니다. 특히, 원문과의 연결이 약해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 사실적으로 맞지 않는 내용을 포함하고 있습니다. 특히, 전형요소 반영 비율과 가산점에 대한 정보는 원문과 전혀 다릅니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원문과의 관계가 부정확하고 일관성이 없습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 제공된 정보가 원문과 맞지 않기 때문에 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있는 내용이지만, 원문과의 관계가 불명확하여 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>0.5195615091656236</v>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서 소프LEncoder:융합학과는 전형요소 반영비율이 다음과 같습니다:
+- 학생부교과: 18%
+- 출결: 12%
+- 서류(실적): 70%
+평균 5등급의 영어 점수를 가지고 지원한다면, 수능 영역 중 영어 등급에 따라 최대 99점까지 가산점이 부여됩니다. 
+따라서 평균 5등급으로 지원하는 경우 다음과 같은 점수를 얻을 수 있습니다:
+- 영어 등급: 5
+- 가산점: 107점 (5등급에 따른 가산점)
+영어 외 다른 영역의 성적이 좋지 않더라도, 이 가산점을 활용하여 합격 가능성을 높일 수는 있습니다. 하지만 정확한 합격 여부는 해당 모집단위의 경쟁률과 지원자의 전체 성적을 고려해야 합니다.
+따라서 평균 5등급으로 지원하는 것은理论上，一个平均英语等级为5的学生可以考虑申请该专业。但是，最终是否能够被录取还需要综合考虑其他因素，如各科目的成绩、学生背景等以及该专业的竞争情况。
+如果您有更多具体信息或需要进一步的帮助，请告诉我！</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보를 바탕으로 여러 가지 추가적인 정보를 제공하고 있지만, 일부 수치나 정보가 원본 텍스트와 일치하지 않거나 명확하지 않습니다. 예를 들어, 평균 점수(4.60)와 관련된 정보는 원본 텍스트에 명시되어 있지 않습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용을 바탕으로 하여 여러 가지 정보를 추가했지만, 일부 내용은 원본 텍스트와 일치하지 않거나 모순되는 부분이 있습니다. 예를 들어, 경쟁률에 대한 정보는 원본 텍스트에 포함되어 있지 않습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하고 있으며, 질문에 대한 답변을 시도하고 있습니다. 그러나 일부 추가 정보는 질문의 핵심과는 다소 거리가 있을 수 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 정보가 원본 텍스트와의 연결이 약해 보일 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보를 바탕으로 하고 있지만, 일부 수치나 정보가 정확하지 않거나 원본 텍스트에 명시되지 않은 내용을 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 사실성과 일관성에서 다소 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하고 있습니다. 그러나 일부 추가 정보는 맥락에서 벗어날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 복잡한 문장은 이해하는 데 시간이 걸릴 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>0.6229278984834578</v>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>4.28이라는 점수만으로는 확실한 답변을 드리기 어렵습니다. 하지만 몇 가지 정보를 바탕으로 추론해볼 수 있습니다.
+1. **모집인원과 지원자 수**: 동의대학교 신소재공학과는 모집 인원이 56명이고, 지원 인원은 81명입니다 (경쟁률 1.45). 이는 상대적으로 낮은 경쟁률을 보여줍니다.
+2. **점수 분포**: 표에서 제공된 최종등록자들의 점수가 보면, 국어 + 수학 + 탐구(2개)의 평균 표준 변환 점수는 271.64입니다 (표준 편차 19.52). 이 점수보다 높은 점수를 받았던 지원자들이 많습니다.
+3. **점수 비교**: 4.28이라는 점수가 표에서 제공된 평균 점수(4.60)와 비슷하거나 약간 낮을 수 있습니다. 하지만 표준 편차가 크기 때문에, 이 점수만으로는 확실한 판단이 어렵습니다.
+4. **전형 요소**: 신소재공학과는 실기/실적 위주 전형입니다 (실기 70%, 서류 30%). 따라서 실기 성적이 중요할 수 있습니다.
+5. **추천사항**:
+   - **면접 준비**: 면접 점수가 높은 지원자들이 많을 가능성이 있으므로, 면접 준비를 철저히 해야 합니다.
+   - **서류 준비**: 서류 평가에서도 좋은 성적을 받기 위해 노력해야 합니다.
+   - **추천서 및 자기소개서**: 추천서와 자기소개서도 중요하므로 잘 작성해보세요.
+결론적으로, 4.28이라는 점수만으로는 확실한 입학이 보장되지는 않습니다. 하지만 경쟁률이 낮고, 실기 성적이 좋은 지원자들보다 높은 점수를 받았다면, 좋은 결과를 기대할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 자기소개서가 필요 없다는 사실을 명확히 전달하고 있습니다. 추가적인 정보도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 자기소개서가 필요 없다는 주장을 지속적으로 지지하고 있습니다. 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 자기소개서의 필요성에 대한 질문에 대한 직접적인 답변을 제공합니다. 추가적인 정보도 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다. 전반적으로 매우 유창합니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어져 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다. 모든 정보가 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완벽하게 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 정리되어 있어 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>0.6558029318455457</v>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 수능(일반학생전형)에서는 자기소개서를 요구하지 않습니다. 
+수능(일반학생전형)은 주로 수능 점수와 학교생활기록부 등을 기준으로 평가됩니다. 따라서 자기소개서 작성은 필요하지 않습니다.
+주요 평가 요인:
+1. 수능 성적 (국어, 수학, 영어 등)
+2. 학교생활기록부 
+3. 탐구 과목 점수
+자기소개서 대신 다음과 같은 준비를 추천드립니다:
+- 정확한 수능 일정 확인
+- 수능 공부 계획 세우기
+- 학교생활기록부 작성 및 관리
+- 탐구 과목 복습
+만약 다른 전형(예: 학생부종합, 실기/실적 등)에서는 자기소개서가 필요할 수 있으니 해당 전형의 요구사항을 확인하시면 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 동의대학교의 수능 정시 모집에 대한 정보를 제공하고 있으며, 수능 점수와 추가 모집에 대한 가능성을 언급하고 있습니다. 그러나, 원문에서 언급된 각 학과의 평균 등급과 표준 편차에 대한 구체적인 정보는 포함되어 있지 않아 일부 세부사항이 누락되었습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원문과 일관되게 동의대학교의 수능 정시 모집에 대한 정보를 제공합니다. 다만, 원문에서 강조된 각 학과의 평균 등급과 비교하는 중요성에 대한 언급이 부족하여 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 다루고 있는 주제와 매우 관련성이 높습니다. 수능 점수와 추가 모집 가능성에 대한 정보를 직접적으로 다루고 있어 주제에 잘 맞습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 정보의 흐름이 자연스럽고 이해하기 쉽습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 동의대학교의 수능 정시 모집에 대한 정확한 정보를 제공하고 있지만, 원문에서 제공된 특정 데이터(예: 평균 등급)와 비교할 때 일부 세부사항이 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 여러 차원에서 잘 수행하고 있습니다. 그러나 일부 세부사항의 누락으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문과 의미적으로 잘 일치하며, 주제에 적합한 내용을 전달하고 있습니다. 의미 전달이 적절합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다. 정보가 잘 정리되어 있어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>0.7106690648113418</v>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 수능 정시 모집에서 국어, 수학(미적분/기하), 영어 등급, 탐구 등급을 반영하여 총점이 산출됩니다. 동의대의 경우 수능 최저 합격 기준이 없습니다만, 추가모집 가능성은 다음과 같이 판단할 수 있습니다:
+1. **최종 합격선**: 정시 모집에서 가장 높은 점수를 받은 지원자의 점수가 대략적인 최소합격선을 나타냅니다.
+2. **추가모집 기회**: 정시 모집이 마감된 후, 일부 모집단위에서는 추가모집을 실시할 수 있습니다. 이때는 일반적으로 최저 합격선보다 낮은 점수로 선발될 가능성이 있습니다.
+3. **개인 성적 평가**: 동의대는 지원자의 전반적인 성적과 적합성을 종합적으로 판단하므로, 단순히 수능 점수만이 결정하는 것은 아닙니다. 다른 요소들도 고려됩니다.
+4. **모집 상태 확인**: 추가모집 여부와 일정을 확인해야 합니다. 이 정보는 동의대학교 입학 홈페이지에서 확인할 수 있습니다.
+따라서, 4.5라는 점수만으로 확실하게 결정하기는 어렵습니다. 정시 모집 결과를 참고하고, 추가모집이 실시되는 경우 해당 기회를 활용하는 것이 좋겠습니다. 추가모집에 대한 자세한 정보는 동의대학교 입학 홈페이지에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학과와 관련된 정보를 제공하고 있으며, 수능 최저 기준에 대한 언급도 포함되어 있습니다. 그러나 원본 텍스트에서 제공된 평균 등급 정보(영어 5.06, 수능 4개 영역 5.78)에 대한 직접적인 언급이 없으므로, 완전한 사실성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학과에 대한 정보를 제공하지만, 원본 텍스트의 평균 등급 정보와는 일치하지 않는 부분이 있습니다. 특히, 수능 최저 기준이 없다고 언급했으나, 원본 텍스트에서는 합격 가능성에 대한 언급이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 신소재공학과와 관련된 정보를 제공하며, 질문의 주제와 직접적으로 관련이 있습니다. 따라서 매우 높은 관련성을 보입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달됩니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 완전한 일관성을 보장하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학과에 대한 정보를 제공하지만, 원본 텍스트의 구체적인 수치나 기준을 포함하지 않아 정확성에서 약간의 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 사실성과 일관성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 정보가 누락되어 있어 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>0.5526002763795941</v>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에 대한 정보를 보면, 신소재공학과와 분자나노공학과가 포함된 모집단위의 경우 다음과 같은 특징을 가지고 있습니다:
+- **모집 단위**: 신소재공학과, 분자나노공학과
+- **모집 인원**: 56명 (81명 중 일부)
+- **전형 유형**: 가군 수능(일반학생전형)
+이 모집단위는 전형요소 반영비율이 다음과 같습니다:
+- 수능: 30%
+- 실기/실적: 70%
+수능 최저 기준은 명시되어 있지 않습니다.
+따라서, 신소재공학부에 대한 정확한 합격 가능 등급을 단정적으로 말하기는 어렵습니다. 하지만 일반적으로 수능 최저 기준이 없거나 매우 낮은 경우를 제외하고, 대체로 **수능 3등급** 이상이 필요할 것으로 예상됩니다.
+더 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 전형요강을 확인하시거나 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 작년 신소재공학과의 평균 점수인 378.15점과 귀하의 점수인 447점을 언급하지 않고, 2024년의 평균 점수 변동 가능성에 대해 설명하고 있습니다. 그러나 원본 텍스트의 핵심 사실을 직접적으로 반영하지 않기 때문에 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분도 있지만, 평균 점수에 대한 구체적인 수치가 없고, 변동 가능성에 대한 일반적인 설명을 하고 있어 일관성이 떨어집니다. 따라서 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학과의 평균 점수 변동 가능성에 대한 정보를 제공하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 구체적인 점수와 비교하는 내용이 부족하여 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있어 읽기 쉽습니다. 따라서 점수는 5로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인에 대한 설명이 명확하게 이어집니다. 그러나 원본 텍스트와의 연결이 약해 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않고, 일반적인 가능성에 대한 설명을 하고 있어 정확성에서 다소 부족합니다. 따라서 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으나, 원본 텍스트의 구체적인 사실을 반영하지 않아 다소 아쉬운 점이 있습니다. 따라서 점수는 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락과 관련된 내용을 다루고 있지만, 구체적인 수치가 부족하여 의미적으로 완벽하게 적합하지는 않습니다. 따라서 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어, 독자가 쉽게 이해할 수 있습니다. 따라서 점수는 5로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>0.6291810561794412</v>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 특정 학과의 최종 평균 점수가 작년에 비해 약간 상승하거나 하락하는 것은 가능합니다. 하지만 이는 여러 요인에 따라 달라질 수 있습니다:
+1. **모집 인원 및 지원자 수**: 작년과 올해의 모집 인원이나 지원자 수가 다르다면, 평균 점수가 변동될 수 있습니다.
+2. **지원 경쟁도**: 작년보다 더 많은 지원자가 동일한 학과를 지원했을 경우, 최종 평균 점수는 상승할 가능성이 있습니다.
+3. **성적 분포 변화**: 작년과 올해의 성적이 어떻게 분포되어 있는지에 따라 평균이 달라질 수 있습니다. 예를 들어, 올해는 높은 점수가 더 많이 나왔다면 평균이 상승할 수 있습니다.
+4. **입학사정관의 판단**: 입학사정관들이 학생들의 전반적인 성적과 적합성을 고려하여 최종 결정을 내릴 때, 이는 평균 점수에 영향을 줄 수 있습니다.
+따라서 2024년 동의대학교 정시에서 신소재공학과의 최종 평균 점수가 작년보다 약간 높아질 가능성은 있지만, 확실한 것은 아닙니다. 정확한 정보는 입학처나 공식 발표를 통해 확인해야 합니다.
+만약 궁금한 점이 더 있으시다면, 동의대학교 입학처 웹사이트 또는 직접 문의하는 것이 가장 정확한 답변을 얻는 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 신소재공학부의 평균 성적과 지원 가능성에 대한 정보를 제공하고 있으며, 원본 텍스트의 내용을 대체로 잘 반영하고 있습니다. 그러나 구체적인 성적 평균에 대한 언급이 부족하여 점수를 4로 평가합니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 정보와 일관되며, 지원 가능성에 대한 여러 요인을 고려하고 있습니다. 다만, 원본 텍스트에서 제시된 평균 성적과 비교하는 방식이 다소 다르게 표현되어 있어 점수를 4로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하며, 지원 가능성에 대한 다양한 요인을 다루고 있어 매우 관련성이 높습니다. 따라서 점수를 5로 평가합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽습니다. 따라서 점수를 5로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으나, 일부 문장 간의 연결이 다소 약해 보일 수 있습니다. 따라서 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있으나, 특정 세부사항에 대한 명확한 언급이 부족하여 점수를 4로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일부 일관성과 정확성에서 약간의 부족함이 있어 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 표현이 다소 모호할 수 있어 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어 점수를 5로 평가합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>0.5884250841528793</v>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>4.1~4.2 등급으로 신소재공학과에 지원하기 위해서는 몇 가지 요인들을 고려해야 합니다:
+1. **모집인원 및 경쟁률**: 신소재공학과의 모집인원과 현재 지원자의 수, 그리고 경쟁률을 확인해야 합니다.
+2. **성적 평균**: 동일계 전형에서 4.1~4.2 등급으로 붙은 학생들의 성적 평균이 어느 정도인지 파악해야 합니다. 이 정보는 대학 홈페이지나 입학처에 공개되어 있을 수 있습니다.
+3. **전형요소 비율**: 신소재공학과의 전형요소 반영비율을 확인합니다. 일반적으로 수능성적이 큰 비중을 차지하므로, 성적만으로도 충분히 가능할 수 있지만, 다른 요소들도 고려됩니다.
+4. **추천서 및 자기소개서 등**: 추천서나 자기소개서 등의 서류평가 결과가 중요합니다. 이 부분에서 좋은 평가를 받으면 성적이 조금 떨어져도 합격 가능성은 높아집니다.
+5. **면접 성적**: 면접에서도 좋은 점수를 받는다면, 성적이 약간 낮더라도 합격 가능성이 있습니다.
+6. **추천사례**: 동의대학교 입학관리 홈페이지나 전형요강을 통해 해당 학과의 동점자 처리기준 등을 확인해 보세요. 이 기준에 따라 4.1~4.2 등급으로도 합격할 수 있는 가능성은 있습니다.
+결론적으로, 현재 성적만으로는 확실하게 붙을 수 없다고 단정 짓기는 어렵습니다. 하지만 성적이 약간 낮더라도 다른 요소들이 잘 준비된다면 합격 가능성은 높아질 수 있습니다. 따라서:
+- 성적 외 서류를 철저히 준비하세요.
+- 면접에서도 최선을 다해 준비해야 합니다.
+- 동의대학교 입학관리 홈페이지나 전형요강을 자세히 확인하여 더 정확한 판단을 내리세요.
+이런 점들을 종합적으로 고려하면, 4.1~4.2 등급으로도 신소재공학과에 지원할 수 있는 가능성은 있습니다.</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 사실을 잘 반영하고 있으며, 대부분의 정보가 정확하게 전달되었습니다. 그러나 "최종합격자의 평균 국어+수학+탐구 점수는 415.80점입니다."라는 문장은 다소 혼동을 줄 수 있습니다. 원본 텍스트에서는 "국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합"의 평균이 301.87로 명시되어 있습니다. 이 점에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, "최종합격자의 평균 국어+수학+탐구 점수"에 대한 언급이 원본의 정보와 일치하지 않아 일관성이 떨어집니다. 또한, "국어 + 수학 + 탐구(가산점 포함) 표준 변환 점수 합"에 대한 정보가 혼동을 줄 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련된 정보를 잘 다루고 있으며, 질문에 대한 적절한 답변을 제공합니다. 모든 정보가 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 일부 문장에서 정보의 흐름이 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 사실이 정확하지만, 특정 점수에 대한 언급에서 약간의 부정확성이 있습니다. 원본 텍스트의 평균 점수와 다르게 언급된 부분이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 일부 세부 사항에서 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 정보의 표현이 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장에서 정보가 명확하지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>0.741152937620404</v>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인공지능학과의 수능(일반학생전형) 최종합격자들의 성적을 참고하겠습니다. 표에서 인공지능학과에 해당하는 데이터를 찾아보면:
+인공지능학과 / 15 / 24 / 1.60 / 5 / { 301.87 /  12.38 / } / { 4.13 /  0.71 / } / { 4.98 /  0.25 / } / { 415.80 /  10.49 / } /
+이 데이터에서 중요한 성적 정보는 다음과 같습니다:
+- 국어 + 수학 + 탐구(가산점 포함) 표준 변환 점수 합: 415.80
+- 영어 등급 평균: 4.13
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 415.80
+이러한 성적을 기반으로 보면, 인공지능학과의 경쟁률은 약 1.60대 1로 낮으며, 최종합격자의 평균 국어+수학+탐구 점수는 415.80점입니다.
+하지만 이는 단 한 해의 데이터일 뿐이며, 실제 수능 성적은 매년 변동될 수 있습니다. 또한 학과별 모집인원, 지원자 수 등 다양한 요인이 경쟁률과 최종합격 점수에 영향을 미칩니다.
+따라서 정확한 예상 절대적인 점수를 말씀드리기는 어렵습니다만, 이와 유사한 성적을 얻는 것이 목표로 하시면 좋을 것 같습니다. 또한 학과 특성과 관련된 수능 과목별 강화도 필요할 것입니다.</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 5.27의 성적에 대한 일반적인 조언을 제공하지만, 원본 텍스트에서 제공된 구체적인 학과별 충원 합격 가능성에 대한 정보는 포함되어 있지 않다. 따라서 사실성 점수는 3으로 평가된다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일치하는 부분도 있지만, 구체적인 학과의 성적 기준에 대한 언급이 없기 때문에 일관성 점수는 3으로 평가된다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 5.27의 성적에 대한 정보를 제공하고 있으며, 관련된 조언을 포함하고 있다. 그러나 원본 텍스트의 구체적인 학과 정보와는 다소 거리가 있어 관련성 점수는 4로 평가된다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬운 구조로 작성되어 있어 유창성 점수는 5로 평가된다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되고 있다. 따라서 일관성 점수는 4로 평가된다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 5.27의 성적에 대한 일반적인 정보를 제공하지만, 원본 텍스트의 구체적인 데이터와 비교했을 때 정확성이 떨어진다. 따라서 정확성 점수는 3으로 평가된다.
+7. Multidimensional Quality Score (1-5): 4
+   - 여러 차원에서 평가했을 때, 생성된 응답은 전반적으로 양호하나 원본 텍스트의 구체적인 정보가 부족하여 다차원 품질 점수는 4로 평가된다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 의미적으로 적절하며, 5.27의 성적에 대한 조언을 제공하고 있다. 따라서 의미 적합성 점수는 4로 평가된다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어 이해 가능성 점수는 5로 평가된다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>0.5843556114116384</v>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>5.27이라는 점수를 보고 정확한 판단을 내리기 위해서는 몇 가지 정보가 필요합니다:
+1. 해당하는 모집단위와 전형 유형이 무엇인지 확인해야 합니다.
+2. 해당 모집단위의 수능 최저 기준이나 성적 반영 방식을 알아야 합니다.
+3. 지원자의 전체 학력 경로와 전형 요소 반영 비율 등을 고려해야 합니다.
+만약 가군 수능(일반학생전형)에서 5.27이라는 점수를 가지고 있다면, 일반적으로 이 성적은 충분히 최저 기준을 넘을 가능성이 높습니다. 하지만 정확한 판단을 위해서는 위의 정보들을 확인해야 합니다.
+추천되는 방법은:
+1. 해당 모집단위의 공식 홈페이지나 입학 안내 센터를 통해 최신 정보를 확인합니다.
+2. 전형요소 반영 비율과 성적 반영 방식 등을 파악합니다.
+3. 만약 불확실하다면, 동의대학교 입학관리팀에 직접 문의하는 것이 가장 정확한 답변을 얻는 방법입니다.
+입학 관련 질문은 언제든지 대학 측에 문의하시면 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 소프트웨어공학부의 평균 등급에 대한 정보와 관련하여 4.2라는 점수가 수능 최저 기준을 충족하는 데 어려움이 있을 수 있다고 언급하고 있습니다. 그러나 원본 텍스트에서는 4.2가 평균 등급보다 높은 성적이라고 명시하고 있어, 이 부분에서 다소 모순이 발생합니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 4.2라는 점수가 소프트웨어공학부에 지원하기에 어려움이 있을 수 있다는 주장은 원본 텍스트의 긍정적인 해석과 상충합니다. 이로 인해 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 소프트웨어공학부에 지원하기 위한 다양한 전형 요소와 절차를 제시하고 있어 원본 텍스트의 주제와 매우 관련성이 높습니다. 따라서 관련성 점수는 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있어 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 논리적인 흐름을 가지고 있으며, 제시된 절차가 잘 연결되어 있습니다. 그러나 일부 내용이 원본 텍스트와의 연결이 약해 보일 수 있어 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 4.2라는 점수가 소프트웨어공학부에 지원하기에 어려움이 있을 수 있다고 언급하고 있지만, 원본 텍스트에서는 합격 가능성이 높다고 명시하고 있습니다. 이로 인해 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 관련성, 유창성, 일관성에서 좋은 점수를 받았지만, 사실성과 정확성에서 다소 부족함이 있어 다차원 품질 점수는 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 내용에서 원본의 긍정적인 해석과 상충하여 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 일부 문장이 길어 다소 복잡하게 느껴질 수 있어 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>0.5715791324668211</v>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 4.2인데 교과로 소프트웨어공학부 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 수능 최저 기준을 충족하는 데 어려움이 있을 수 있습니다. 하지만 동의대학교의 정시 모집에서는 수능 성적 외에도 다양한 전형요소가 고려됩니다. 특히 소프트웨어공학부와 관련된 전공적합성, 학업역량 등이 중요한 역할을 합니다.
+다음은 추천 가능한 절차입니다:
+1. **전형 요소 확인**: 소프트웨어공학부는 실기/실적 위주로 모집되는 경우가 많으므로, 해당 전공의 특성화 과정이나 프로그래밍 경험이 있다면 이에 대한 증빙 자료를 준비해보세요.
+2. **서류 제출**: 서류 평가에서 학업역량과 전공적합성을 잘 보여줄 수 있도록 지원동기를 명확히 작성하고, 관련 활동이나 경험을 구체적으로 기재하세요.
+3. **면접 준비**: 면접에서는 자신의 학업계획과 입학 후의 목표를 잘 설명하며, 소프트웨어공학에 대한 이해도와 관심을 표현하는 것이 중요합니다.
+4. **추천서 활용**: 가능하다면 교사나 지도교사의 추천서를 준비하여 서류 평가에서 긍정적인 점수를 받을 수 있도록 하세요.
+5. **출결 및 성적 관리**: 출결이 좋고, 학업성적이 높은 과목에 대한 석차 등급이 높다면 이점도 강하게 보여줄 수 있습니다.
+4.2라는 점수로는 정시에서 소프트웨어공학부를 지원하는 것이 쉽지 않을 수 있지만, 전형요소와 성적을 잘 준비한다면 가능성이 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 화학환경공학부의 평균 등급에 대한 정보와 관련된 내용을 포함하고 있지만, 성별 비율 요구와 같은 추가적인 조건을 언급하고 있습니다. 이는 원본 텍스트에 명시되지 않은 정보로, 사실성과 정확성을 떨어뜨립니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 있습니다. 특히 성별 비율 요구와 같은 조건은 원본 텍스트에 포함되어 있지 않으며, 이는 일관성을 저해합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가적인 조건을 언급함으로써 주제를 벗어난 부분이 있습니다. 원본 텍스트의 핵심 정보에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 중국어로 작성되어 있어 한국어 사용자에게는 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결성이 떨어져 다소 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 많습니다. 특히 성별 비율 요구와 같은 정보는 원본에 포함되어 있지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 원본 텍스트와의 관련성도 부족합니다. 따라서 다차원적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 추가적인 조건을 언급함으로써 의미가 왜곡될 수 있습니다. 따라서 의미적 적절성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우며, 각 항목이 명확하게 제시되어 있습니다. 그러나 한국어 사용자에게는 언어 장벽이 있을 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>0.4757424136205909</v>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>为了确定是否可以申请东国大学化工环境工学部的一般学生入学,我们需要考虑以下几个因素:
+1. 成绩要求:
+   - 根据您的成绩(3.92),您需要查看该专业的具体录取分数线。
+   - 化学环境工学部的录取标准可能会有所不同。
+2. 招生计划:
+   - 查看该专业在当年的具体招生名额。
+   - 了解是否有剩余名额可以录取。
+3. 性别比例要求:
+   - 根据您提供的信息,化工环境工学部似乎有性别比例要求(男女各50%)。
+   - 如果您的性别不符合要求,可能无法申请。
+4. 其他条件:
+   - 确认是否有其他附加条件或限制。
+建议步骤:
+1. 查看东国大学官网发布的2024年招生简章中化工环境工学部的具体录取标准和名额信息。
+2. 核实您的性别是否符合该专业的性别比例要求。
+3. 如果符合条件,可以尝试申请。但请注意,最终能否录取还需根据实际报名情况而定。
+建议直接访问东国大学官网或联系学校招生办公室获取最准确的信息。</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 동의대학교 화학환경공학부의 수능 일반학생전형에 대한 정보를 제공하고 있으며, 4.25의 성적이 합격 가능성이 높다는 점을 언급하고 있습니다. 그러나 일부 세부사항이 원문에 비해 다소 일반적이거나 구체적인 수치가 부족하여 완전한 정확성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원문에서 제공된 정보와 일관되며, 화학환경공학부의 성적 반영 방법과 요건에 대한 설명이 포함되어 있습니다. 다만, 원문에서 제시된 평균 성적과 비교하는 부분이 부족하여 약간의 일관성 결여가 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 지원 절차와 성적 요건에 대한 정보를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽고 이해하기 쉬운 구조를 가지고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있어 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 전반적으로 정확한 정보를 제공하고 있으나, 원문에서 제시된 구체적인 수치나 데이터에 대한 언급이 부족하여 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 사실성과 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문과 의미적으로 잘 일치하며, 주제에 적합한 내용을 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 언어로 작성되어 있어, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>0.6537168216582089</v>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>동의대 화학환경공학부 원서접수 했습니다. 동의대식 정시 성적 4.25인데 수능 일반학생전형으로 가능하나요?</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교에서 수능 일반학생전형으로 지원할 경우, 다음과 같은 절차와 요건을 확인해야 합니다:
+1. **모집단위**: 화학환경공학부는 공과대학에 속해 있습니다.
+2. **성적 반영방법**:
+   - 화학환경공학부는 수능 성적이 반영되는 모집단위입니다.
+   - 가군(일반학생전형)의 경우, 수능 성적이 100% 반영됩니다 (국어 + 수학 + 영어 + 탐구).
+3. **성적 요건**:
+   - 동의대학교는 일반적으로 수능 성적을 기준으로 모집합니다.
+   - 화학환경공학부는 공과대학에 속해 있어, 수능 성적이 반영됩니다.
+4. **성적 확인**:
+   - 4.25라는 점수는 수능 성적의 표준점수입니다 (0~100점).
+   - 이 점수를 가지고 지원 가능합니다.
+따라서, 동의대학교 화학환경공학부에 지원하신다면, 4.25의 수능 성적이 충분히 고득점을 받을 수 있는 범위에 속해 있습니다. 하지만 최종 합격 여부는 모집인원과 경쟁률 등 여러 요인에 따라 결정되므로, 정확한 결과를 확인하기 위해서는 입학공고 및 합격자 발표를 주시해야 합니다.
+추가적으로, 수능 성적 외에도 지원자의 전반적인 자질과 능력을 평가하는 면접이나 서류평가 등이 있을 수 있으므로, 해당 부분도 준비해두시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 4.2라는 점수에 대한 해석과 영화학과의 전형 요소에 대한 정보를 제공하고 있으며, 대체로 정확한 정보를 담고 있습니다. 그러나 4.2의 정확한 의미에 대한 명시가 부족하여 점수를 4로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 영화학과의 전형 요소와 관련된 정보를 제공하지만, 원본 텍스트의 평균 성적에 대한 구체적인 수치를 언급하지 않고 있습니다. 이로 인해 일관성이 다소 떨어진다고 판단하여 3으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 영화학과의 전형 요소와 합격 가능성에 대한 정보를 포함하고 있어 매우 관련성이 높습니다. 따라서 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 그러나 일부 부분에서 더 명확한 연결이 필요할 수 있어 4로 평가합니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 영화학과의 전형 요소와 관련된 정보를 제공하고 있지만, 4.2라는 점수의 정확한 의미에 대한 설명이 부족하여 완전한 정확성을 보장하지 않으므로 4로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 차원에서 좋은 품질을 보여주지만, 일관성과 정확성에서 약간의 부족함이 있어 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 4.2의 의미에 대한 명확한 설명이 부족하여 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있으므로 4로 평가합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>0.6260185345354538</v>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 정확한 의미가 무엇인지 명시되어 있지 않으므로, 일반적으로 대입 성적을 가정하겠습니다. 영화학과의 전형요소 중 학생부교과와 실기/실적 위주로 평가되는 경우가 많습니다.
+1. **전형 요소 반영 비율 확인**: 
+   - 영화학과는 주로 실기/실적 위주로 평가되므로, 실기 성적이 중요합니다.
+   - 학생부교과 성적도 고려하지만, 실기가 더 큰 비중을 차지합니다.
+2. **성적 분석**:
+   - 4.2는 대략적인 점수이지만, 정확한 등급이나 표준점수를 알고 있어야 합니다.
+   - 예를 들어, 4.2가 3등급이라면, 이 정도 성적이 영화학과에서 좋은 성적일 수 있습니다.
+3. **예상 평균성적**:
+   - 영화학과의 최초합격자 표에 따르면, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합은 대략 400-450 사이입니다.
+   - 이는 3등급에서 4등급 정도의 성적을 의미할 수 있습니다.
+4. **합격 가능성**:
+   - 현재의 성적이 영화학과의 평균성적보다 높다면, 합격 가능성은 있습니다.
+   - 그러나 경쟁률이 높아서 다른 지원자들의 성적이 더 좋다면, 여전히 낮을 수 있습니다.
+5. **추가 요소**:
+   - 면접 성적이나 서류 평가 등도 중요한 역할을 합니다.
+   - 실기 성적과 학생부교과 성적의 균형이 중요합니다.
+결론적으로, 4.2라는 점수만으로는 확실한 판단이 어렵습니다. 영화학과의 전형요소와 지원자의 전체적인 성적 및 경쟁률을 고려해야 합니다. 만약 가능하다면, 동일 학교나 유사 학교의 최초합격자 성적을 참고하거나, 입학처에 문의하여 자세한 정보를 얻는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 면접 절차를 정확하게 나열하고 있으며, 각 단계에 대한 추가 설명도 포함되어 있습니다. 그러나 원본 텍스트에 포함된 "기타 질의응답(제출서류 진위 여부 등)" 부분이 누락되어 있어 완전한 정확성은 다소 떨어집니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 면접 절차를 설명하고 있습니다. 그러나 추가된 설명이 원본 텍스트의 내용과 완전히 일치하지는 않지만, 전반적으로 일관성을 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 면접 절차에 대한 설명이 주제와 관련이 깊습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 명확하게 연결되어 있습니다. 그러나 추가된 설명이 원본 텍스트와의 연결이 약간 느슨할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 면접 절차에 대한 정확한 정보를 제공하고 있지만, 원본 텍스트의 일부 세부사항이 누락되어 있어 완전한 정확성은 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 품질을 유지하고 있습니다. 그러나 일부 세부사항의 누락이 아쉬운 점입니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 추가된 설명이 원본의 의도와 약간 다를 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>0.6613298110835226</v>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>以下是面试流程的韩文描述：
+면접 절차는 다음과 같습니다:
+1. 대기실 입실 (Arrival at Waiting Room)
+2. 신분 확인 (Identification Check) 
+3. 고사장 앞 이동 (Move to Exam Room)
+4. 고사장 입실 (Enter Exam Room)
+5. 지원 동기 및 학업 계획 발표 (Presentation on Motivation and Academic Plan)
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답 (Discussion on Academic Abilities and Major Suitability)
+7. 기타 질의응답 (Additional Questions about Submitted Documents)
+각 단계별로 입학사정관 2인이 평가위원으로 참여하여 수험생을 대상으로 개별적인 면접을 실시합니다. 이는 정성적이고 종합적으로 이루어집니다.
+이러한 절차를 통해 지원자의 학업역량, 전공 적합성 등을 평가하게 됩니다.</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
